--- a/Genomic Selection_SALVA/data/acrossENV_BLrr_DS_Index_mega.xlsx
+++ b/Genomic Selection_SALVA/data/acrossENV_BLrr_DS_Index_mega.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t xml:space="preserve">regressor</t>
   </si>
@@ -90,6 +90,12 @@
   </si>
   <si>
     <t xml:space="preserve">Index [CV]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MegaENV [CV]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GBLUP</t>
   </si>
 </sst>
 </file>
@@ -21674,6 +21680,7956 @@
         <v>42.9749999999985</v>
       </c>
     </row>
+    <row r="402">
+      <c r="A402" t="s">
+        <v>17</v>
+      </c>
+      <c r="B402" t="s">
+        <v>22</v>
+      </c>
+      <c r="C402" t="s">
+        <v>26</v>
+      </c>
+      <c r="D402" t="n">
+        <v>32</v>
+      </c>
+      <c r="E402" t="n">
+        <v>288</v>
+      </c>
+      <c r="F402" t="s">
+        <v>20</v>
+      </c>
+      <c r="G402" t="n">
+        <v>24279</v>
+      </c>
+      <c r="H402" t="s">
+        <v>21</v>
+      </c>
+      <c r="I402" t="n">
+        <v>1</v>
+      </c>
+      <c r="J402" t="n">
+        <v>10</v>
+      </c>
+      <c r="K402" t="n">
+        <v>0.460113713047589</v>
+      </c>
+      <c r="L402" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="M402" t="n">
+        <v>1</v>
+      </c>
+      <c r="N402" t="n">
+        <v>0.289785366358829</v>
+      </c>
+      <c r="O402" t="n">
+        <v>0.22190120395492</v>
+      </c>
+      <c r="P402" t="n">
+        <v>0.165110066293084</v>
+      </c>
+      <c r="Q402" t="n">
+        <v>4.22599999999993</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="s">
+        <v>23</v>
+      </c>
+      <c r="B403" t="s">
+        <v>22</v>
+      </c>
+      <c r="C403" t="s">
+        <v>26</v>
+      </c>
+      <c r="D403" t="n">
+        <v>32</v>
+      </c>
+      <c r="E403" t="n">
+        <v>288</v>
+      </c>
+      <c r="F403" t="s">
+        <v>20</v>
+      </c>
+      <c r="G403" t="n">
+        <v>24279</v>
+      </c>
+      <c r="H403" t="s">
+        <v>21</v>
+      </c>
+      <c r="I403" t="n">
+        <v>1</v>
+      </c>
+      <c r="J403" t="n">
+        <v>10</v>
+      </c>
+      <c r="K403" t="n">
+        <v>0.448722260547785</v>
+      </c>
+      <c r="L403" t="n">
+        <v>0.359787390029326</v>
+      </c>
+      <c r="M403" t="n">
+        <v>1</v>
+      </c>
+      <c r="N403" t="n">
+        <v>0.290936716955741</v>
+      </c>
+      <c r="O403" t="n">
+        <v>0.223848544236597</v>
+      </c>
+      <c r="P403" t="n">
+        <v>0.158960860479404</v>
+      </c>
+      <c r="Q403" t="n">
+        <v>26.159</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="s">
+        <v>17</v>
+      </c>
+      <c r="B404" t="s">
+        <v>22</v>
+      </c>
+      <c r="C404" t="s">
+        <v>26</v>
+      </c>
+      <c r="D404" t="n">
+        <v>32</v>
+      </c>
+      <c r="E404" t="n">
+        <v>288</v>
+      </c>
+      <c r="F404" t="s">
+        <v>20</v>
+      </c>
+      <c r="G404" t="n">
+        <v>24279</v>
+      </c>
+      <c r="H404" t="s">
+        <v>21</v>
+      </c>
+      <c r="I404" t="n">
+        <v>2</v>
+      </c>
+      <c r="J404" t="n">
+        <v>10</v>
+      </c>
+      <c r="K404" t="n">
+        <v>0.424093325222629</v>
+      </c>
+      <c r="L404" t="n">
+        <v>0.352309384164223</v>
+      </c>
+      <c r="M404" t="n">
+        <v>1</v>
+      </c>
+      <c r="N404" t="n">
+        <v>0.288913762465818</v>
+      </c>
+      <c r="O404" t="n">
+        <v>0.219276331293481</v>
+      </c>
+      <c r="P404" t="n">
+        <v>0.174456245806596</v>
+      </c>
+      <c r="Q404" t="n">
+        <v>4.41100000000006</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="s">
+        <v>23</v>
+      </c>
+      <c r="B405" t="s">
+        <v>22</v>
+      </c>
+      <c r="C405" t="s">
+        <v>26</v>
+      </c>
+      <c r="D405" t="n">
+        <v>32</v>
+      </c>
+      <c r="E405" t="n">
+        <v>288</v>
+      </c>
+      <c r="F405" t="s">
+        <v>20</v>
+      </c>
+      <c r="G405" t="n">
+        <v>24279</v>
+      </c>
+      <c r="H405" t="s">
+        <v>21</v>
+      </c>
+      <c r="I405" t="n">
+        <v>2</v>
+      </c>
+      <c r="J405" t="n">
+        <v>10</v>
+      </c>
+      <c r="K405" t="n">
+        <v>0.42469968563449</v>
+      </c>
+      <c r="L405" t="n">
+        <v>0.355901759530792</v>
+      </c>
+      <c r="M405" t="n">
+        <v>1</v>
+      </c>
+      <c r="N405" t="n">
+        <v>0.288135696247901</v>
+      </c>
+      <c r="O405" t="n">
+        <v>0.218763799604663</v>
+      </c>
+      <c r="P405" t="n">
+        <v>0.178486767089193</v>
+      </c>
+      <c r="Q405" t="n">
+        <v>25.763</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="s">
+        <v>17</v>
+      </c>
+      <c r="B406" t="s">
+        <v>22</v>
+      </c>
+      <c r="C406" t="s">
+        <v>26</v>
+      </c>
+      <c r="D406" t="n">
+        <v>32</v>
+      </c>
+      <c r="E406" t="n">
+        <v>288</v>
+      </c>
+      <c r="F406" t="s">
+        <v>20</v>
+      </c>
+      <c r="G406" t="n">
+        <v>24279</v>
+      </c>
+      <c r="H406" t="s">
+        <v>21</v>
+      </c>
+      <c r="I406" t="n">
+        <v>3</v>
+      </c>
+      <c r="J406" t="n">
+        <v>10</v>
+      </c>
+      <c r="K406" t="n">
+        <v>0.48072125543607</v>
+      </c>
+      <c r="L406" t="n">
+        <v>0.368841642228739</v>
+      </c>
+      <c r="M406" t="n">
+        <v>1</v>
+      </c>
+      <c r="N406" t="n">
+        <v>0.286266673231888</v>
+      </c>
+      <c r="O406" t="n">
+        <v>0.220235839828349</v>
+      </c>
+      <c r="P406" t="n">
+        <v>0.207682903494897</v>
+      </c>
+      <c r="Q406" t="n">
+        <v>4.38900000000008</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="s">
+        <v>23</v>
+      </c>
+      <c r="B407" t="s">
+        <v>22</v>
+      </c>
+      <c r="C407" t="s">
+        <v>26</v>
+      </c>
+      <c r="D407" t="n">
+        <v>32</v>
+      </c>
+      <c r="E407" t="n">
+        <v>288</v>
+      </c>
+      <c r="F407" t="s">
+        <v>20</v>
+      </c>
+      <c r="G407" t="n">
+        <v>24279</v>
+      </c>
+      <c r="H407" t="s">
+        <v>21</v>
+      </c>
+      <c r="I407" t="n">
+        <v>3</v>
+      </c>
+      <c r="J407" t="n">
+        <v>10</v>
+      </c>
+      <c r="K407" t="n">
+        <v>0.478126535776535</v>
+      </c>
+      <c r="L407" t="n">
+        <v>0.360410557184751</v>
+      </c>
+      <c r="M407" t="n">
+        <v>1</v>
+      </c>
+      <c r="N407" t="n">
+        <v>0.287027134282393</v>
+      </c>
+      <c r="O407" t="n">
+        <v>0.22096947983376</v>
+      </c>
+      <c r="P407" t="n">
+        <v>0.203663723868846</v>
+      </c>
+      <c r="Q407" t="n">
+        <v>25.5680000000001</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="s">
+        <v>17</v>
+      </c>
+      <c r="B408" t="s">
+        <v>22</v>
+      </c>
+      <c r="C408" t="s">
+        <v>26</v>
+      </c>
+      <c r="D408" t="n">
+        <v>32</v>
+      </c>
+      <c r="E408" t="n">
+        <v>288</v>
+      </c>
+      <c r="F408" t="s">
+        <v>20</v>
+      </c>
+      <c r="G408" t="n">
+        <v>24279</v>
+      </c>
+      <c r="H408" t="s">
+        <v>21</v>
+      </c>
+      <c r="I408" t="n">
+        <v>4</v>
+      </c>
+      <c r="J408" t="n">
+        <v>10</v>
+      </c>
+      <c r="K408" t="n">
+        <v>0.466100157197521</v>
+      </c>
+      <c r="L408" t="n">
+        <v>0.396260997067449</v>
+      </c>
+      <c r="M408" t="n">
+        <v>1</v>
+      </c>
+      <c r="N408" t="n">
+        <v>0.285041172846094</v>
+      </c>
+      <c r="O408" t="n">
+        <v>0.219485507264496</v>
+      </c>
+      <c r="P408" t="n">
+        <v>0.179737753547858</v>
+      </c>
+      <c r="Q408" t="n">
+        <v>4.13699999999994</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="s">
+        <v>23</v>
+      </c>
+      <c r="B409" t="s">
+        <v>22</v>
+      </c>
+      <c r="C409" t="s">
+        <v>26</v>
+      </c>
+      <c r="D409" t="n">
+        <v>32</v>
+      </c>
+      <c r="E409" t="n">
+        <v>288</v>
+      </c>
+      <c r="F409" t="s">
+        <v>20</v>
+      </c>
+      <c r="G409" t="n">
+        <v>24279</v>
+      </c>
+      <c r="H409" t="s">
+        <v>21</v>
+      </c>
+      <c r="I409" t="n">
+        <v>4</v>
+      </c>
+      <c r="J409" t="n">
+        <v>10</v>
+      </c>
+      <c r="K409" t="n">
+        <v>0.461165607127659</v>
+      </c>
+      <c r="L409" t="n">
+        <v>0.386363636363636</v>
+      </c>
+      <c r="M409" t="n">
+        <v>1</v>
+      </c>
+      <c r="N409" t="n">
+        <v>0.285613908880971</v>
+      </c>
+      <c r="O409" t="n">
+        <v>0.218941737374711</v>
+      </c>
+      <c r="P409" t="n">
+        <v>0.176894994786892</v>
+      </c>
+      <c r="Q409" t="n">
+        <v>25.3229999999999</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="s">
+        <v>17</v>
+      </c>
+      <c r="B410" t="s">
+        <v>22</v>
+      </c>
+      <c r="C410" t="s">
+        <v>26</v>
+      </c>
+      <c r="D410" t="n">
+        <v>32</v>
+      </c>
+      <c r="E410" t="n">
+        <v>288</v>
+      </c>
+      <c r="F410" t="s">
+        <v>20</v>
+      </c>
+      <c r="G410" t="n">
+        <v>24279</v>
+      </c>
+      <c r="H410" t="s">
+        <v>21</v>
+      </c>
+      <c r="I410" t="n">
+        <v>5</v>
+      </c>
+      <c r="J410" t="n">
+        <v>10</v>
+      </c>
+      <c r="K410" t="n">
+        <v>0.469758560299163</v>
+      </c>
+      <c r="L410" t="n">
+        <v>0.380095307917889</v>
+      </c>
+      <c r="M410" t="n">
+        <v>1</v>
+      </c>
+      <c r="N410" t="n">
+        <v>0.288377483653993</v>
+      </c>
+      <c r="O410" t="n">
+        <v>0.221719322138392</v>
+      </c>
+      <c r="P410" t="n">
+        <v>0.167651574558154</v>
+      </c>
+      <c r="Q410" t="n">
+        <v>4.075</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="s">
+        <v>23</v>
+      </c>
+      <c r="B411" t="s">
+        <v>22</v>
+      </c>
+      <c r="C411" t="s">
+        <v>26</v>
+      </c>
+      <c r="D411" t="n">
+        <v>32</v>
+      </c>
+      <c r="E411" t="n">
+        <v>288</v>
+      </c>
+      <c r="F411" t="s">
+        <v>20</v>
+      </c>
+      <c r="G411" t="n">
+        <v>24279</v>
+      </c>
+      <c r="H411" t="s">
+        <v>21</v>
+      </c>
+      <c r="I411" t="n">
+        <v>5</v>
+      </c>
+      <c r="J411" t="n">
+        <v>10</v>
+      </c>
+      <c r="K411" t="n">
+        <v>0.477414768984617</v>
+      </c>
+      <c r="L411" t="n">
+        <v>0.393365102639296</v>
+      </c>
+      <c r="M411" t="n">
+        <v>1</v>
+      </c>
+      <c r="N411" t="n">
+        <v>0.287847816808566</v>
+      </c>
+      <c r="O411" t="n">
+        <v>0.221617142545025</v>
+      </c>
+      <c r="P411" t="n">
+        <v>0.171483983392054</v>
+      </c>
+      <c r="Q411" t="n">
+        <v>25.337</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="s">
+        <v>17</v>
+      </c>
+      <c r="B412" t="s">
+        <v>22</v>
+      </c>
+      <c r="C412" t="s">
+        <v>26</v>
+      </c>
+      <c r="D412" t="n">
+        <v>32</v>
+      </c>
+      <c r="E412" t="n">
+        <v>288</v>
+      </c>
+      <c r="F412" t="s">
+        <v>20</v>
+      </c>
+      <c r="G412" t="n">
+        <v>24279</v>
+      </c>
+      <c r="H412" t="s">
+        <v>21</v>
+      </c>
+      <c r="I412" t="n">
+        <v>6</v>
+      </c>
+      <c r="J412" t="n">
+        <v>10</v>
+      </c>
+      <c r="K412" t="n">
+        <v>0.435417054636013</v>
+      </c>
+      <c r="L412" t="n">
+        <v>0.401099706744868</v>
+      </c>
+      <c r="M412" t="n">
+        <v>1</v>
+      </c>
+      <c r="N412" t="n">
+        <v>0.287950895333997</v>
+      </c>
+      <c r="O412" t="n">
+        <v>0.221746228390515</v>
+      </c>
+      <c r="P412" t="n">
+        <v>0.142645271003586</v>
+      </c>
+      <c r="Q412" t="n">
+        <v>4.14699999999993</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="s">
+        <v>23</v>
+      </c>
+      <c r="B413" t="s">
+        <v>22</v>
+      </c>
+      <c r="C413" t="s">
+        <v>26</v>
+      </c>
+      <c r="D413" t="n">
+        <v>32</v>
+      </c>
+      <c r="E413" t="n">
+        <v>288</v>
+      </c>
+      <c r="F413" t="s">
+        <v>20</v>
+      </c>
+      <c r="G413" t="n">
+        <v>24279</v>
+      </c>
+      <c r="H413" t="s">
+        <v>21</v>
+      </c>
+      <c r="I413" t="n">
+        <v>6</v>
+      </c>
+      <c r="J413" t="n">
+        <v>10</v>
+      </c>
+      <c r="K413" t="n">
+        <v>0.431289767586259</v>
+      </c>
+      <c r="L413" t="n">
+        <v>0.399266862170088</v>
+      </c>
+      <c r="M413" t="n">
+        <v>1</v>
+      </c>
+      <c r="N413" t="n">
+        <v>0.288147950536536</v>
+      </c>
+      <c r="O413" t="n">
+        <v>0.222143616054843</v>
+      </c>
+      <c r="P413" t="n">
+        <v>0.140802153278684</v>
+      </c>
+      <c r="Q413" t="n">
+        <v>25.3360000000001</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="s">
+        <v>17</v>
+      </c>
+      <c r="B414" t="s">
+        <v>22</v>
+      </c>
+      <c r="C414" t="s">
+        <v>26</v>
+      </c>
+      <c r="D414" t="n">
+        <v>32</v>
+      </c>
+      <c r="E414" t="n">
+        <v>288</v>
+      </c>
+      <c r="F414" t="s">
+        <v>20</v>
+      </c>
+      <c r="G414" t="n">
+        <v>24279</v>
+      </c>
+      <c r="H414" t="s">
+        <v>21</v>
+      </c>
+      <c r="I414" t="n">
+        <v>7</v>
+      </c>
+      <c r="J414" t="n">
+        <v>10</v>
+      </c>
+      <c r="K414" t="n">
+        <v>0.498108056527913</v>
+      </c>
+      <c r="L414" t="n">
+        <v>0.411766862170088</v>
+      </c>
+      <c r="M414" t="n">
+        <v>1</v>
+      </c>
+      <c r="N414" t="n">
+        <v>0.284251822072049</v>
+      </c>
+      <c r="O414" t="n">
+        <v>0.219262423510868</v>
+      </c>
+      <c r="P414" t="n">
+        <v>0.198974129880125</v>
+      </c>
+      <c r="Q414" t="n">
+        <v>4.34299999999998</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="s">
+        <v>23</v>
+      </c>
+      <c r="B415" t="s">
+        <v>22</v>
+      </c>
+      <c r="C415" t="s">
+        <v>26</v>
+      </c>
+      <c r="D415" t="n">
+        <v>32</v>
+      </c>
+      <c r="E415" t="n">
+        <v>288</v>
+      </c>
+      <c r="F415" t="s">
+        <v>20</v>
+      </c>
+      <c r="G415" t="n">
+        <v>24279</v>
+      </c>
+      <c r="H415" t="s">
+        <v>21</v>
+      </c>
+      <c r="I415" t="n">
+        <v>7</v>
+      </c>
+      <c r="J415" t="n">
+        <v>10</v>
+      </c>
+      <c r="K415" t="n">
+        <v>0.494556320841278</v>
+      </c>
+      <c r="L415" t="n">
+        <v>0.404912023460411</v>
+      </c>
+      <c r="M415" t="n">
+        <v>1</v>
+      </c>
+      <c r="N415" t="n">
+        <v>0.28460836358749</v>
+      </c>
+      <c r="O415" t="n">
+        <v>0.219579481118266</v>
+      </c>
+      <c r="P415" t="n">
+        <v>0.195735509637884</v>
+      </c>
+      <c r="Q415" t="n">
+        <v>25.74</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="s">
+        <v>17</v>
+      </c>
+      <c r="B416" t="s">
+        <v>22</v>
+      </c>
+      <c r="C416" t="s">
+        <v>26</v>
+      </c>
+      <c r="D416" t="n">
+        <v>32</v>
+      </c>
+      <c r="E416" t="n">
+        <v>288</v>
+      </c>
+      <c r="F416" t="s">
+        <v>20</v>
+      </c>
+      <c r="G416" t="n">
+        <v>24279</v>
+      </c>
+      <c r="H416" t="s">
+        <v>21</v>
+      </c>
+      <c r="I416" t="n">
+        <v>8</v>
+      </c>
+      <c r="J416" t="n">
+        <v>10</v>
+      </c>
+      <c r="K416" t="n">
+        <v>0.496508559949785</v>
+      </c>
+      <c r="L416" t="n">
+        <v>0.419978005865103</v>
+      </c>
+      <c r="M416" t="n">
+        <v>1</v>
+      </c>
+      <c r="N416" t="n">
+        <v>0.285885796785167</v>
+      </c>
+      <c r="O416" t="n">
+        <v>0.218201827463483</v>
+      </c>
+      <c r="P416" t="n">
+        <v>0.205063608067814</v>
+      </c>
+      <c r="Q416" t="n">
+        <v>4.01999999999998</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="s">
+        <v>23</v>
+      </c>
+      <c r="B417" t="s">
+        <v>22</v>
+      </c>
+      <c r="C417" t="s">
+        <v>26</v>
+      </c>
+      <c r="D417" t="n">
+        <v>32</v>
+      </c>
+      <c r="E417" t="n">
+        <v>288</v>
+      </c>
+      <c r="F417" t="s">
+        <v>20</v>
+      </c>
+      <c r="G417" t="n">
+        <v>24279</v>
+      </c>
+      <c r="H417" t="s">
+        <v>21</v>
+      </c>
+      <c r="I417" t="n">
+        <v>8</v>
+      </c>
+      <c r="J417" t="n">
+        <v>10</v>
+      </c>
+      <c r="K417" t="n">
+        <v>0.491650601848904</v>
+      </c>
+      <c r="L417" t="n">
+        <v>0.412243401759531</v>
+      </c>
+      <c r="M417" t="n">
+        <v>1</v>
+      </c>
+      <c r="N417" t="n">
+        <v>0.285440104071196</v>
+      </c>
+      <c r="O417" t="n">
+        <v>0.21906779603813</v>
+      </c>
+      <c r="P417" t="n">
+        <v>0.209611541541049</v>
+      </c>
+      <c r="Q417" t="n">
+        <v>25.692</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="s">
+        <v>17</v>
+      </c>
+      <c r="B418" t="s">
+        <v>22</v>
+      </c>
+      <c r="C418" t="s">
+        <v>26</v>
+      </c>
+      <c r="D418" t="n">
+        <v>32</v>
+      </c>
+      <c r="E418" t="n">
+        <v>288</v>
+      </c>
+      <c r="F418" t="s">
+        <v>20</v>
+      </c>
+      <c r="G418" t="n">
+        <v>24279</v>
+      </c>
+      <c r="H418" t="s">
+        <v>21</v>
+      </c>
+      <c r="I418" t="n">
+        <v>9</v>
+      </c>
+      <c r="J418" t="n">
+        <v>10</v>
+      </c>
+      <c r="K418" t="n">
+        <v>0.445802498478424</v>
+      </c>
+      <c r="L418" t="n">
+        <v>0.382148093841642</v>
+      </c>
+      <c r="M418" t="n">
+        <v>1</v>
+      </c>
+      <c r="N418" t="n">
+        <v>0.289237972483253</v>
+      </c>
+      <c r="O418" t="n">
+        <v>0.222260430495687</v>
+      </c>
+      <c r="P418" t="n">
+        <v>0.165133034019473</v>
+      </c>
+      <c r="Q418" t="n">
+        <v>4.03799999999992</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="s">
+        <v>23</v>
+      </c>
+      <c r="B419" t="s">
+        <v>22</v>
+      </c>
+      <c r="C419" t="s">
+        <v>26</v>
+      </c>
+      <c r="D419" t="n">
+        <v>32</v>
+      </c>
+      <c r="E419" t="n">
+        <v>288</v>
+      </c>
+      <c r="F419" t="s">
+        <v>20</v>
+      </c>
+      <c r="G419" t="n">
+        <v>24279</v>
+      </c>
+      <c r="H419" t="s">
+        <v>21</v>
+      </c>
+      <c r="I419" t="n">
+        <v>9</v>
+      </c>
+      <c r="J419" t="n">
+        <v>10</v>
+      </c>
+      <c r="K419" t="n">
+        <v>0.44905435284025</v>
+      </c>
+      <c r="L419" t="n">
+        <v>0.385007331378299</v>
+      </c>
+      <c r="M419" t="n">
+        <v>1</v>
+      </c>
+      <c r="N419" t="n">
+        <v>0.2881719573821</v>
+      </c>
+      <c r="O419" t="n">
+        <v>0.220696041976929</v>
+      </c>
+      <c r="P419" t="n">
+        <v>0.173497872231416</v>
+      </c>
+      <c r="Q419" t="n">
+        <v>26.0800000000003</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="s">
+        <v>17</v>
+      </c>
+      <c r="B420" t="s">
+        <v>22</v>
+      </c>
+      <c r="C420" t="s">
+        <v>26</v>
+      </c>
+      <c r="D420" t="n">
+        <v>32</v>
+      </c>
+      <c r="E420" t="n">
+        <v>288</v>
+      </c>
+      <c r="F420" t="s">
+        <v>20</v>
+      </c>
+      <c r="G420" t="n">
+        <v>24279</v>
+      </c>
+      <c r="H420" t="s">
+        <v>21</v>
+      </c>
+      <c r="I420" t="n">
+        <v>10</v>
+      </c>
+      <c r="J420" t="n">
+        <v>10</v>
+      </c>
+      <c r="K420" t="n">
+        <v>0.454448416696396</v>
+      </c>
+      <c r="L420" t="n">
+        <v>0.420381231671554</v>
+      </c>
+      <c r="M420" t="n">
+        <v>1</v>
+      </c>
+      <c r="N420" t="n">
+        <v>0.290352546514607</v>
+      </c>
+      <c r="O420" t="n">
+        <v>0.220424361343785</v>
+      </c>
+      <c r="P420" t="n">
+        <v>0.143418741403721</v>
+      </c>
+      <c r="Q420" t="n">
+        <v>4.42200000000012</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="s">
+        <v>23</v>
+      </c>
+      <c r="B421" t="s">
+        <v>22</v>
+      </c>
+      <c r="C421" t="s">
+        <v>26</v>
+      </c>
+      <c r="D421" t="n">
+        <v>32</v>
+      </c>
+      <c r="E421" t="n">
+        <v>288</v>
+      </c>
+      <c r="F421" t="s">
+        <v>20</v>
+      </c>
+      <c r="G421" t="n">
+        <v>24279</v>
+      </c>
+      <c r="H421" t="s">
+        <v>21</v>
+      </c>
+      <c r="I421" t="n">
+        <v>10</v>
+      </c>
+      <c r="J421" t="n">
+        <v>10</v>
+      </c>
+      <c r="K421" t="n">
+        <v>0.459121979876642</v>
+      </c>
+      <c r="L421" t="n">
+        <v>0.421554252199414</v>
+      </c>
+      <c r="M421" t="n">
+        <v>1</v>
+      </c>
+      <c r="N421" t="n">
+        <v>0.28975286224392</v>
+      </c>
+      <c r="O421" t="n">
+        <v>0.219795769560373</v>
+      </c>
+      <c r="P421" t="n">
+        <v>0.148363270830831</v>
+      </c>
+      <c r="Q421" t="n">
+        <v>25.991</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="s">
+        <v>17</v>
+      </c>
+      <c r="B422" t="s">
+        <v>22</v>
+      </c>
+      <c r="C422" t="s">
+        <v>26</v>
+      </c>
+      <c r="D422" t="n">
+        <v>32</v>
+      </c>
+      <c r="E422" t="n">
+        <v>288</v>
+      </c>
+      <c r="F422" t="s">
+        <v>20</v>
+      </c>
+      <c r="G422" t="n">
+        <v>24279</v>
+      </c>
+      <c r="H422" t="s">
+        <v>21</v>
+      </c>
+      <c r="I422" t="n">
+        <v>11</v>
+      </c>
+      <c r="J422" t="n">
+        <v>10</v>
+      </c>
+      <c r="K422" t="n">
+        <v>0.459049399138644</v>
+      </c>
+      <c r="L422" t="n">
+        <v>0.356048387096774</v>
+      </c>
+      <c r="M422" t="n">
+        <v>1</v>
+      </c>
+      <c r="N422" t="n">
+        <v>0.292175395948723</v>
+      </c>
+      <c r="O422" t="n">
+        <v>0.222483034644114</v>
+      </c>
+      <c r="P422" t="n">
+        <v>0.153838547545103</v>
+      </c>
+      <c r="Q422" t="n">
+        <v>4.34400000000005</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="s">
+        <v>23</v>
+      </c>
+      <c r="B423" t="s">
+        <v>22</v>
+      </c>
+      <c r="C423" t="s">
+        <v>26</v>
+      </c>
+      <c r="D423" t="n">
+        <v>32</v>
+      </c>
+      <c r="E423" t="n">
+        <v>288</v>
+      </c>
+      <c r="F423" t="s">
+        <v>20</v>
+      </c>
+      <c r="G423" t="n">
+        <v>24279</v>
+      </c>
+      <c r="H423" t="s">
+        <v>21</v>
+      </c>
+      <c r="I423" t="n">
+        <v>11</v>
+      </c>
+      <c r="J423" t="n">
+        <v>10</v>
+      </c>
+      <c r="K423" t="n">
+        <v>0.454797913507706</v>
+      </c>
+      <c r="L423" t="n">
+        <v>0.34299853372434</v>
+      </c>
+      <c r="M423" t="n">
+        <v>1</v>
+      </c>
+      <c r="N423" t="n">
+        <v>0.291943078756226</v>
+      </c>
+      <c r="O423" t="n">
+        <v>0.222454196692015</v>
+      </c>
+      <c r="P423" t="n">
+        <v>0.156573888602583</v>
+      </c>
+      <c r="Q423" t="n">
+        <v>25.0149999999997</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="s">
+        <v>17</v>
+      </c>
+      <c r="B424" t="s">
+        <v>22</v>
+      </c>
+      <c r="C424" t="s">
+        <v>26</v>
+      </c>
+      <c r="D424" t="n">
+        <v>32</v>
+      </c>
+      <c r="E424" t="n">
+        <v>288</v>
+      </c>
+      <c r="F424" t="s">
+        <v>20</v>
+      </c>
+      <c r="G424" t="n">
+        <v>24279</v>
+      </c>
+      <c r="H424" t="s">
+        <v>21</v>
+      </c>
+      <c r="I424" t="n">
+        <v>12</v>
+      </c>
+      <c r="J424" t="n">
+        <v>10</v>
+      </c>
+      <c r="K424" t="n">
+        <v>0.457564141483674</v>
+      </c>
+      <c r="L424" t="n">
+        <v>0.372104105571847</v>
+      </c>
+      <c r="M424" t="n">
+        <v>1</v>
+      </c>
+      <c r="N424" t="n">
+        <v>0.285250499601039</v>
+      </c>
+      <c r="O424" t="n">
+        <v>0.218285417917044</v>
+      </c>
+      <c r="P424" t="n">
+        <v>0.154145700117534</v>
+      </c>
+      <c r="Q424" t="n">
+        <v>4.02999999999993</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="s">
+        <v>23</v>
+      </c>
+      <c r="B425" t="s">
+        <v>22</v>
+      </c>
+      <c r="C425" t="s">
+        <v>26</v>
+      </c>
+      <c r="D425" t="n">
+        <v>32</v>
+      </c>
+      <c r="E425" t="n">
+        <v>288</v>
+      </c>
+      <c r="F425" t="s">
+        <v>20</v>
+      </c>
+      <c r="G425" t="n">
+        <v>24279</v>
+      </c>
+      <c r="H425" t="s">
+        <v>21</v>
+      </c>
+      <c r="I425" t="n">
+        <v>12</v>
+      </c>
+      <c r="J425" t="n">
+        <v>10</v>
+      </c>
+      <c r="K425" t="n">
+        <v>0.458935744665679</v>
+      </c>
+      <c r="L425" t="n">
+        <v>0.372653958944282</v>
+      </c>
+      <c r="M425" t="n">
+        <v>1</v>
+      </c>
+      <c r="N425" t="n">
+        <v>0.285047189829497</v>
+      </c>
+      <c r="O425" t="n">
+        <v>0.217483232839335</v>
+      </c>
+      <c r="P425" t="n">
+        <v>0.157004111659728</v>
+      </c>
+      <c r="Q425" t="n">
+        <v>25.2130000000003</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="s">
+        <v>17</v>
+      </c>
+      <c r="B426" t="s">
+        <v>22</v>
+      </c>
+      <c r="C426" t="s">
+        <v>26</v>
+      </c>
+      <c r="D426" t="n">
+        <v>32</v>
+      </c>
+      <c r="E426" t="n">
+        <v>288</v>
+      </c>
+      <c r="F426" t="s">
+        <v>20</v>
+      </c>
+      <c r="G426" t="n">
+        <v>24279</v>
+      </c>
+      <c r="H426" t="s">
+        <v>21</v>
+      </c>
+      <c r="I426" t="n">
+        <v>13</v>
+      </c>
+      <c r="J426" t="n">
+        <v>10</v>
+      </c>
+      <c r="K426" t="n">
+        <v>0.465624058801646</v>
+      </c>
+      <c r="L426" t="n">
+        <v>0.393475073313783</v>
+      </c>
+      <c r="M426" t="n">
+        <v>1</v>
+      </c>
+      <c r="N426" t="n">
+        <v>0.286408571828172</v>
+      </c>
+      <c r="O426" t="n">
+        <v>0.22029245749175</v>
+      </c>
+      <c r="P426" t="n">
+        <v>0.181759945656741</v>
+      </c>
+      <c r="Q426" t="n">
+        <v>4.13099999999995</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="s">
+        <v>23</v>
+      </c>
+      <c r="B427" t="s">
+        <v>22</v>
+      </c>
+      <c r="C427" t="s">
+        <v>26</v>
+      </c>
+      <c r="D427" t="n">
+        <v>32</v>
+      </c>
+      <c r="E427" t="n">
+        <v>288</v>
+      </c>
+      <c r="F427" t="s">
+        <v>20</v>
+      </c>
+      <c r="G427" t="n">
+        <v>24279</v>
+      </c>
+      <c r="H427" t="s">
+        <v>21</v>
+      </c>
+      <c r="I427" t="n">
+        <v>13</v>
+      </c>
+      <c r="J427" t="n">
+        <v>10</v>
+      </c>
+      <c r="K427" t="n">
+        <v>0.46339442321517</v>
+      </c>
+      <c r="L427" t="n">
+        <v>0.400843108504399</v>
+      </c>
+      <c r="M427" t="n">
+        <v>1</v>
+      </c>
+      <c r="N427" t="n">
+        <v>0.286593499728796</v>
+      </c>
+      <c r="O427" t="n">
+        <v>0.220761310094095</v>
+      </c>
+      <c r="P427" t="n">
+        <v>0.180013841777673</v>
+      </c>
+      <c r="Q427" t="n">
+        <v>25.1169999999999</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="s">
+        <v>17</v>
+      </c>
+      <c r="B428" t="s">
+        <v>22</v>
+      </c>
+      <c r="C428" t="s">
+        <v>26</v>
+      </c>
+      <c r="D428" t="n">
+        <v>32</v>
+      </c>
+      <c r="E428" t="n">
+        <v>288</v>
+      </c>
+      <c r="F428" t="s">
+        <v>20</v>
+      </c>
+      <c r="G428" t="n">
+        <v>24279</v>
+      </c>
+      <c r="H428" t="s">
+        <v>21</v>
+      </c>
+      <c r="I428" t="n">
+        <v>14</v>
+      </c>
+      <c r="J428" t="n">
+        <v>10</v>
+      </c>
+      <c r="K428" t="n">
+        <v>0.452143664167945</v>
+      </c>
+      <c r="L428" t="n">
+        <v>0.382148093841642</v>
+      </c>
+      <c r="M428" t="n">
+        <v>1</v>
+      </c>
+      <c r="N428" t="n">
+        <v>0.287093394251185</v>
+      </c>
+      <c r="O428" t="n">
+        <v>0.220960402531437</v>
+      </c>
+      <c r="P428" t="n">
+        <v>0.109378169636121</v>
+      </c>
+      <c r="Q428" t="n">
+        <v>3.99799999999987</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="s">
+        <v>23</v>
+      </c>
+      <c r="B429" t="s">
+        <v>22</v>
+      </c>
+      <c r="C429" t="s">
+        <v>26</v>
+      </c>
+      <c r="D429" t="n">
+        <v>32</v>
+      </c>
+      <c r="E429" t="n">
+        <v>288</v>
+      </c>
+      <c r="F429" t="s">
+        <v>20</v>
+      </c>
+      <c r="G429" t="n">
+        <v>24279</v>
+      </c>
+      <c r="H429" t="s">
+        <v>21</v>
+      </c>
+      <c r="I429" t="n">
+        <v>14</v>
+      </c>
+      <c r="J429" t="n">
+        <v>10</v>
+      </c>
+      <c r="K429" t="n">
+        <v>0.447076174704804</v>
+      </c>
+      <c r="L429" t="n">
+        <v>0.384127565982405</v>
+      </c>
+      <c r="M429" t="n">
+        <v>1</v>
+      </c>
+      <c r="N429" t="n">
+        <v>0.288560819660842</v>
+      </c>
+      <c r="O429" t="n">
+        <v>0.223768579743986</v>
+      </c>
+      <c r="P429" t="n">
+        <v>0.0997460367078941</v>
+      </c>
+      <c r="Q429" t="n">
+        <v>25.6740000000003</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="s">
+        <v>17</v>
+      </c>
+      <c r="B430" t="s">
+        <v>22</v>
+      </c>
+      <c r="C430" t="s">
+        <v>26</v>
+      </c>
+      <c r="D430" t="n">
+        <v>32</v>
+      </c>
+      <c r="E430" t="n">
+        <v>288</v>
+      </c>
+      <c r="F430" t="s">
+        <v>20</v>
+      </c>
+      <c r="G430" t="n">
+        <v>24279</v>
+      </c>
+      <c r="H430" t="s">
+        <v>21</v>
+      </c>
+      <c r="I430" t="n">
+        <v>15</v>
+      </c>
+      <c r="J430" t="n">
+        <v>10</v>
+      </c>
+      <c r="K430" t="n">
+        <v>0.460656002102794</v>
+      </c>
+      <c r="L430" t="n">
+        <v>0.384054252199413</v>
+      </c>
+      <c r="M430" t="n">
+        <v>1</v>
+      </c>
+      <c r="N430" t="n">
+        <v>0.290913004352657</v>
+      </c>
+      <c r="O430" t="n">
+        <v>0.22115297681407</v>
+      </c>
+      <c r="P430" t="n">
+        <v>0.169826423645099</v>
+      </c>
+      <c r="Q430" t="n">
+        <v>4.17799999999997</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="s">
+        <v>23</v>
+      </c>
+      <c r="B431" t="s">
+        <v>22</v>
+      </c>
+      <c r="C431" t="s">
+        <v>26</v>
+      </c>
+      <c r="D431" t="n">
+        <v>32</v>
+      </c>
+      <c r="E431" t="n">
+        <v>288</v>
+      </c>
+      <c r="F431" t="s">
+        <v>20</v>
+      </c>
+      <c r="G431" t="n">
+        <v>24279</v>
+      </c>
+      <c r="H431" t="s">
+        <v>21</v>
+      </c>
+      <c r="I431" t="n">
+        <v>15</v>
+      </c>
+      <c r="J431" t="n">
+        <v>10</v>
+      </c>
+      <c r="K431" t="n">
+        <v>0.452734849276248</v>
+      </c>
+      <c r="L431" t="n">
+        <v>0.37074780058651</v>
+      </c>
+      <c r="M431" t="n">
+        <v>1</v>
+      </c>
+      <c r="N431" t="n">
+        <v>0.292933993807652</v>
+      </c>
+      <c r="O431" t="n">
+        <v>0.222578564977407</v>
+      </c>
+      <c r="P431" t="n">
+        <v>0.156543977257583</v>
+      </c>
+      <c r="Q431" t="n">
+        <v>25.2879999999999</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="s">
+        <v>17</v>
+      </c>
+      <c r="B432" t="s">
+        <v>22</v>
+      </c>
+      <c r="C432" t="s">
+        <v>26</v>
+      </c>
+      <c r="D432" t="n">
+        <v>32</v>
+      </c>
+      <c r="E432" t="n">
+        <v>288</v>
+      </c>
+      <c r="F432" t="s">
+        <v>20</v>
+      </c>
+      <c r="G432" t="n">
+        <v>24279</v>
+      </c>
+      <c r="H432" t="s">
+        <v>21</v>
+      </c>
+      <c r="I432" t="n">
+        <v>16</v>
+      </c>
+      <c r="J432" t="n">
+        <v>10</v>
+      </c>
+      <c r="K432" t="n">
+        <v>0.472943219822027</v>
+      </c>
+      <c r="L432" t="n">
+        <v>0.400476539589443</v>
+      </c>
+      <c r="M432" t="n">
+        <v>1</v>
+      </c>
+      <c r="N432" t="n">
+        <v>0.286203021174079</v>
+      </c>
+      <c r="O432" t="n">
+        <v>0.219078612357153</v>
+      </c>
+      <c r="P432" t="n">
+        <v>0.198131635593904</v>
+      </c>
+      <c r="Q432" t="n">
+        <v>4.10599999999986</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="s">
+        <v>23</v>
+      </c>
+      <c r="B433" t="s">
+        <v>22</v>
+      </c>
+      <c r="C433" t="s">
+        <v>26</v>
+      </c>
+      <c r="D433" t="n">
+        <v>32</v>
+      </c>
+      <c r="E433" t="n">
+        <v>288</v>
+      </c>
+      <c r="F433" t="s">
+        <v>20</v>
+      </c>
+      <c r="G433" t="n">
+        <v>24279</v>
+      </c>
+      <c r="H433" t="s">
+        <v>21</v>
+      </c>
+      <c r="I433" t="n">
+        <v>16</v>
+      </c>
+      <c r="J433" t="n">
+        <v>10</v>
+      </c>
+      <c r="K433" t="n">
+        <v>0.463581413136581</v>
+      </c>
+      <c r="L433" t="n">
+        <v>0.382258064516129</v>
+      </c>
+      <c r="M433" t="n">
+        <v>1</v>
+      </c>
+      <c r="N433" t="n">
+        <v>0.287618850717732</v>
+      </c>
+      <c r="O433" t="n">
+        <v>0.220870045014901</v>
+      </c>
+      <c r="P433" t="n">
+        <v>0.189589940185811</v>
+      </c>
+      <c r="Q433" t="n">
+        <v>25.2720000000001</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="s">
+        <v>17</v>
+      </c>
+      <c r="B434" t="s">
+        <v>22</v>
+      </c>
+      <c r="C434" t="s">
+        <v>26</v>
+      </c>
+      <c r="D434" t="n">
+        <v>32</v>
+      </c>
+      <c r="E434" t="n">
+        <v>288</v>
+      </c>
+      <c r="F434" t="s">
+        <v>20</v>
+      </c>
+      <c r="G434" t="n">
+        <v>24279</v>
+      </c>
+      <c r="H434" t="s">
+        <v>21</v>
+      </c>
+      <c r="I434" t="n">
+        <v>17</v>
+      </c>
+      <c r="J434" t="n">
+        <v>10</v>
+      </c>
+      <c r="K434" t="n">
+        <v>0.485036883290147</v>
+      </c>
+      <c r="L434" t="n">
+        <v>0.396737536656891</v>
+      </c>
+      <c r="M434" t="n">
+        <v>1</v>
+      </c>
+      <c r="N434" t="n">
+        <v>0.289854855939475</v>
+      </c>
+      <c r="O434" t="n">
+        <v>0.222072430815117</v>
+      </c>
+      <c r="P434" t="n">
+        <v>0.137336262889096</v>
+      </c>
+      <c r="Q434" t="n">
+        <v>4.11900000000005</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="s">
+        <v>23</v>
+      </c>
+      <c r="B435" t="s">
+        <v>22</v>
+      </c>
+      <c r="C435" t="s">
+        <v>26</v>
+      </c>
+      <c r="D435" t="n">
+        <v>32</v>
+      </c>
+      <c r="E435" t="n">
+        <v>288</v>
+      </c>
+      <c r="F435" t="s">
+        <v>20</v>
+      </c>
+      <c r="G435" t="n">
+        <v>24279</v>
+      </c>
+      <c r="H435" t="s">
+        <v>21</v>
+      </c>
+      <c r="I435" t="n">
+        <v>17</v>
+      </c>
+      <c r="J435" t="n">
+        <v>10</v>
+      </c>
+      <c r="K435" t="n">
+        <v>0.474693516905413</v>
+      </c>
+      <c r="L435" t="n">
+        <v>0.37925219941349</v>
+      </c>
+      <c r="M435" t="n">
+        <v>1</v>
+      </c>
+      <c r="N435" t="n">
+        <v>0.290826410664456</v>
+      </c>
+      <c r="O435" t="n">
+        <v>0.222187467591575</v>
+      </c>
+      <c r="P435" t="n">
+        <v>0.129407202611497</v>
+      </c>
+      <c r="Q435" t="n">
+        <v>25.338</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="s">
+        <v>17</v>
+      </c>
+      <c r="B436" t="s">
+        <v>22</v>
+      </c>
+      <c r="C436" t="s">
+        <v>26</v>
+      </c>
+      <c r="D436" t="n">
+        <v>32</v>
+      </c>
+      <c r="E436" t="n">
+        <v>288</v>
+      </c>
+      <c r="F436" t="s">
+        <v>20</v>
+      </c>
+      <c r="G436" t="n">
+        <v>24279</v>
+      </c>
+      <c r="H436" t="s">
+        <v>21</v>
+      </c>
+      <c r="I436" t="n">
+        <v>18</v>
+      </c>
+      <c r="J436" t="n">
+        <v>10</v>
+      </c>
+      <c r="K436" t="n">
+        <v>0.473318639594852</v>
+      </c>
+      <c r="L436" t="n">
+        <v>0.387243401759531</v>
+      </c>
+      <c r="M436" t="n">
+        <v>1</v>
+      </c>
+      <c r="N436" t="n">
+        <v>0.286710597101129</v>
+      </c>
+      <c r="O436" t="n">
+        <v>0.220100837362715</v>
+      </c>
+      <c r="P436" t="n">
+        <v>0.18662753976481</v>
+      </c>
+      <c r="Q436" t="n">
+        <v>4.10099999999984</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="s">
+        <v>23</v>
+      </c>
+      <c r="B437" t="s">
+        <v>22</v>
+      </c>
+      <c r="C437" t="s">
+        <v>26</v>
+      </c>
+      <c r="D437" t="n">
+        <v>32</v>
+      </c>
+      <c r="E437" t="n">
+        <v>288</v>
+      </c>
+      <c r="F437" t="s">
+        <v>20</v>
+      </c>
+      <c r="G437" t="n">
+        <v>24279</v>
+      </c>
+      <c r="H437" t="s">
+        <v>21</v>
+      </c>
+      <c r="I437" t="n">
+        <v>18</v>
+      </c>
+      <c r="J437" t="n">
+        <v>10</v>
+      </c>
+      <c r="K437" t="n">
+        <v>0.478846568922874</v>
+      </c>
+      <c r="L437" t="n">
+        <v>0.385593841642229</v>
+      </c>
+      <c r="M437" t="n">
+        <v>1</v>
+      </c>
+      <c r="N437" t="n">
+        <v>0.286217674868437</v>
+      </c>
+      <c r="O437" t="n">
+        <v>0.219898670477491</v>
+      </c>
+      <c r="P437" t="n">
+        <v>0.189901159472614</v>
+      </c>
+      <c r="Q437" t="n">
+        <v>25.2620000000002</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="s">
+        <v>17</v>
+      </c>
+      <c r="B438" t="s">
+        <v>22</v>
+      </c>
+      <c r="C438" t="s">
+        <v>26</v>
+      </c>
+      <c r="D438" t="n">
+        <v>32</v>
+      </c>
+      <c r="E438" t="n">
+        <v>288</v>
+      </c>
+      <c r="F438" t="s">
+        <v>20</v>
+      </c>
+      <c r="G438" t="n">
+        <v>24279</v>
+      </c>
+      <c r="H438" t="s">
+        <v>21</v>
+      </c>
+      <c r="I438" t="n">
+        <v>19</v>
+      </c>
+      <c r="J438" t="n">
+        <v>10</v>
+      </c>
+      <c r="K438" t="n">
+        <v>0.452425808285307</v>
+      </c>
+      <c r="L438" t="n">
+        <v>0.404288856304985</v>
+      </c>
+      <c r="M438" t="n">
+        <v>1</v>
+      </c>
+      <c r="N438" t="n">
+        <v>0.288393945930307</v>
+      </c>
+      <c r="O438" t="n">
+        <v>0.218449467751134</v>
+      </c>
+      <c r="P438" t="n">
+        <v>0.188202529673848</v>
+      </c>
+      <c r="Q438" t="n">
+        <v>4.13100000000013</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="s">
+        <v>23</v>
+      </c>
+      <c r="B439" t="s">
+        <v>22</v>
+      </c>
+      <c r="C439" t="s">
+        <v>26</v>
+      </c>
+      <c r="D439" t="n">
+        <v>32</v>
+      </c>
+      <c r="E439" t="n">
+        <v>288</v>
+      </c>
+      <c r="F439" t="s">
+        <v>20</v>
+      </c>
+      <c r="G439" t="n">
+        <v>24279</v>
+      </c>
+      <c r="H439" t="s">
+        <v>21</v>
+      </c>
+      <c r="I439" t="n">
+        <v>19</v>
+      </c>
+      <c r="J439" t="n">
+        <v>10</v>
+      </c>
+      <c r="K439" t="n">
+        <v>0.456168876649843</v>
+      </c>
+      <c r="L439" t="n">
+        <v>0.410007331378299</v>
+      </c>
+      <c r="M439" t="n">
+        <v>1</v>
+      </c>
+      <c r="N439" t="n">
+        <v>0.287546976906001</v>
+      </c>
+      <c r="O439" t="n">
+        <v>0.218291864194593</v>
+      </c>
+      <c r="P439" t="n">
+        <v>0.193387393720507</v>
+      </c>
+      <c r="Q439" t="n">
+        <v>25.3040000000001</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="s">
+        <v>17</v>
+      </c>
+      <c r="B440" t="s">
+        <v>22</v>
+      </c>
+      <c r="C440" t="s">
+        <v>26</v>
+      </c>
+      <c r="D440" t="n">
+        <v>32</v>
+      </c>
+      <c r="E440" t="n">
+        <v>288</v>
+      </c>
+      <c r="F440" t="s">
+        <v>20</v>
+      </c>
+      <c r="G440" t="n">
+        <v>24279</v>
+      </c>
+      <c r="H440" t="s">
+        <v>21</v>
+      </c>
+      <c r="I440" t="n">
+        <v>20</v>
+      </c>
+      <c r="J440" t="n">
+        <v>10</v>
+      </c>
+      <c r="K440" t="n">
+        <v>0.434374216016755</v>
+      </c>
+      <c r="L440" t="n">
+        <v>0.374486803519062</v>
+      </c>
+      <c r="M440" t="n">
+        <v>1</v>
+      </c>
+      <c r="N440" t="n">
+        <v>0.29024449207272</v>
+      </c>
+      <c r="O440" t="n">
+        <v>0.219410053942293</v>
+      </c>
+      <c r="P440" t="n">
+        <v>0.163878916663413</v>
+      </c>
+      <c r="Q440" t="n">
+        <v>4.11800000000012</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="s">
+        <v>23</v>
+      </c>
+      <c r="B441" t="s">
+        <v>22</v>
+      </c>
+      <c r="C441" t="s">
+        <v>26</v>
+      </c>
+      <c r="D441" t="n">
+        <v>32</v>
+      </c>
+      <c r="E441" t="n">
+        <v>288</v>
+      </c>
+      <c r="F441" t="s">
+        <v>20</v>
+      </c>
+      <c r="G441" t="n">
+        <v>24279</v>
+      </c>
+      <c r="H441" t="s">
+        <v>21</v>
+      </c>
+      <c r="I441" t="n">
+        <v>20</v>
+      </c>
+      <c r="J441" t="n">
+        <v>10</v>
+      </c>
+      <c r="K441" t="n">
+        <v>0.438998212095307</v>
+      </c>
+      <c r="L441" t="n">
+        <v>0.370161290322581</v>
+      </c>
+      <c r="M441" t="n">
+        <v>1</v>
+      </c>
+      <c r="N441" t="n">
+        <v>0.288495823754035</v>
+      </c>
+      <c r="O441" t="n">
+        <v>0.217710290487218</v>
+      </c>
+      <c r="P441" t="n">
+        <v>0.174045121215422</v>
+      </c>
+      <c r="Q441" t="n">
+        <v>25.286</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="s">
+        <v>17</v>
+      </c>
+      <c r="B442" t="s">
+        <v>22</v>
+      </c>
+      <c r="C442" t="s">
+        <v>26</v>
+      </c>
+      <c r="D442" t="n">
+        <v>32</v>
+      </c>
+      <c r="E442" t="n">
+        <v>288</v>
+      </c>
+      <c r="F442" t="s">
+        <v>20</v>
+      </c>
+      <c r="G442" t="n">
+        <v>24279</v>
+      </c>
+      <c r="H442" t="s">
+        <v>21</v>
+      </c>
+      <c r="I442" t="n">
+        <v>21</v>
+      </c>
+      <c r="J442" t="n">
+        <v>10</v>
+      </c>
+      <c r="K442" t="n">
+        <v>0.459922807504212</v>
+      </c>
+      <c r="L442" t="n">
+        <v>0.383431085043988</v>
+      </c>
+      <c r="M442" t="n">
+        <v>1</v>
+      </c>
+      <c r="N442" t="n">
+        <v>0.290264922543216</v>
+      </c>
+      <c r="O442" t="n">
+        <v>0.219199040106171</v>
+      </c>
+      <c r="P442" t="n">
+        <v>0.193239745782101</v>
+      </c>
+      <c r="Q442" t="n">
+        <v>4.0920000000001</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="s">
+        <v>23</v>
+      </c>
+      <c r="B443" t="s">
+        <v>22</v>
+      </c>
+      <c r="C443" t="s">
+        <v>26</v>
+      </c>
+      <c r="D443" t="n">
+        <v>32</v>
+      </c>
+      <c r="E443" t="n">
+        <v>288</v>
+      </c>
+      <c r="F443" t="s">
+        <v>20</v>
+      </c>
+      <c r="G443" t="n">
+        <v>24279</v>
+      </c>
+      <c r="H443" t="s">
+        <v>21</v>
+      </c>
+      <c r="I443" t="n">
+        <v>21</v>
+      </c>
+      <c r="J443" t="n">
+        <v>10</v>
+      </c>
+      <c r="K443" t="n">
+        <v>0.452771498226438</v>
+      </c>
+      <c r="L443" t="n">
+        <v>0.376796187683284</v>
+      </c>
+      <c r="M443" t="n">
+        <v>1</v>
+      </c>
+      <c r="N443" t="n">
+        <v>0.291359178892999</v>
+      </c>
+      <c r="O443" t="n">
+        <v>0.220316076508904</v>
+      </c>
+      <c r="P443" t="n">
+        <v>0.187228330686515</v>
+      </c>
+      <c r="Q443" t="n">
+        <v>25.301</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="s">
+        <v>17</v>
+      </c>
+      <c r="B444" t="s">
+        <v>22</v>
+      </c>
+      <c r="C444" t="s">
+        <v>26</v>
+      </c>
+      <c r="D444" t="n">
+        <v>32</v>
+      </c>
+      <c r="E444" t="n">
+        <v>288</v>
+      </c>
+      <c r="F444" t="s">
+        <v>20</v>
+      </c>
+      <c r="G444" t="n">
+        <v>24279</v>
+      </c>
+      <c r="H444" t="s">
+        <v>21</v>
+      </c>
+      <c r="I444" t="n">
+        <v>22</v>
+      </c>
+      <c r="J444" t="n">
+        <v>10</v>
+      </c>
+      <c r="K444" t="n">
+        <v>0.46873023581028</v>
+      </c>
+      <c r="L444" t="n">
+        <v>0.386766862170088</v>
+      </c>
+      <c r="M444" t="n">
+        <v>1</v>
+      </c>
+      <c r="N444" t="n">
+        <v>0.287790541246562</v>
+      </c>
+      <c r="O444" t="n">
+        <v>0.218799685176547</v>
+      </c>
+      <c r="P444" t="n">
+        <v>0.178461957312238</v>
+      </c>
+      <c r="Q444" t="n">
+        <v>4.13999999999978</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="s">
+        <v>23</v>
+      </c>
+      <c r="B445" t="s">
+        <v>22</v>
+      </c>
+      <c r="C445" t="s">
+        <v>26</v>
+      </c>
+      <c r="D445" t="n">
+        <v>32</v>
+      </c>
+      <c r="E445" t="n">
+        <v>288</v>
+      </c>
+      <c r="F445" t="s">
+        <v>20</v>
+      </c>
+      <c r="G445" t="n">
+        <v>24279</v>
+      </c>
+      <c r="H445" t="s">
+        <v>21</v>
+      </c>
+      <c r="I445" t="n">
+        <v>22</v>
+      </c>
+      <c r="J445" t="n">
+        <v>10</v>
+      </c>
+      <c r="K445" t="n">
+        <v>0.464136553896338</v>
+      </c>
+      <c r="L445" t="n">
+        <v>0.375219941348974</v>
+      </c>
+      <c r="M445" t="n">
+        <v>1</v>
+      </c>
+      <c r="N445" t="n">
+        <v>0.288353845571168</v>
+      </c>
+      <c r="O445" t="n">
+        <v>0.219197996647077</v>
+      </c>
+      <c r="P445" t="n">
+        <v>0.176207574352694</v>
+      </c>
+      <c r="Q445" t="n">
+        <v>25.2489999999998</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="s">
+        <v>17</v>
+      </c>
+      <c r="B446" t="s">
+        <v>22</v>
+      </c>
+      <c r="C446" t="s">
+        <v>26</v>
+      </c>
+      <c r="D446" t="n">
+        <v>32</v>
+      </c>
+      <c r="E446" t="n">
+        <v>288</v>
+      </c>
+      <c r="F446" t="s">
+        <v>20</v>
+      </c>
+      <c r="G446" t="n">
+        <v>24279</v>
+      </c>
+      <c r="H446" t="s">
+        <v>21</v>
+      </c>
+      <c r="I446" t="n">
+        <v>23</v>
+      </c>
+      <c r="J446" t="n">
+        <v>10</v>
+      </c>
+      <c r="K446" t="n">
+        <v>0.440590479517898</v>
+      </c>
+      <c r="L446" t="n">
+        <v>0.377126099706745</v>
+      </c>
+      <c r="M446" t="n">
+        <v>1</v>
+      </c>
+      <c r="N446" t="n">
+        <v>0.288094686784757</v>
+      </c>
+      <c r="O446" t="n">
+        <v>0.221881749532439</v>
+      </c>
+      <c r="P446" t="n">
+        <v>0.122158350710429</v>
+      </c>
+      <c r="Q446" t="n">
+        <v>4.12899999999991</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="s">
+        <v>23</v>
+      </c>
+      <c r="B447" t="s">
+        <v>22</v>
+      </c>
+      <c r="C447" t="s">
+        <v>26</v>
+      </c>
+      <c r="D447" t="n">
+        <v>32</v>
+      </c>
+      <c r="E447" t="n">
+        <v>288</v>
+      </c>
+      <c r="F447" t="s">
+        <v>20</v>
+      </c>
+      <c r="G447" t="n">
+        <v>24279</v>
+      </c>
+      <c r="H447" t="s">
+        <v>21</v>
+      </c>
+      <c r="I447" t="n">
+        <v>23</v>
+      </c>
+      <c r="J447" t="n">
+        <v>10</v>
+      </c>
+      <c r="K447" t="n">
+        <v>0.443665558191924</v>
+      </c>
+      <c r="L447" t="n">
+        <v>0.384384164222874</v>
+      </c>
+      <c r="M447" t="n">
+        <v>1</v>
+      </c>
+      <c r="N447" t="n">
+        <v>0.28737224002978</v>
+      </c>
+      <c r="O447" t="n">
+        <v>0.221011458202659</v>
+      </c>
+      <c r="P447" t="n">
+        <v>0.127169457184793</v>
+      </c>
+      <c r="Q447" t="n">
+        <v>25.3120000000003</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="s">
+        <v>17</v>
+      </c>
+      <c r="B448" t="s">
+        <v>22</v>
+      </c>
+      <c r="C448" t="s">
+        <v>26</v>
+      </c>
+      <c r="D448" t="n">
+        <v>32</v>
+      </c>
+      <c r="E448" t="n">
+        <v>288</v>
+      </c>
+      <c r="F448" t="s">
+        <v>20</v>
+      </c>
+      <c r="G448" t="n">
+        <v>24279</v>
+      </c>
+      <c r="H448" t="s">
+        <v>21</v>
+      </c>
+      <c r="I448" t="n">
+        <v>24</v>
+      </c>
+      <c r="J448" t="n">
+        <v>10</v>
+      </c>
+      <c r="K448" t="n">
+        <v>0.495076770840906</v>
+      </c>
+      <c r="L448" t="n">
+        <v>0.410153958944282</v>
+      </c>
+      <c r="M448" t="n">
+        <v>1</v>
+      </c>
+      <c r="N448" t="n">
+        <v>0.289370734657802</v>
+      </c>
+      <c r="O448" t="n">
+        <v>0.220634679725929</v>
+      </c>
+      <c r="P448" t="n">
+        <v>0.154920309163007</v>
+      </c>
+      <c r="Q448" t="n">
+        <v>4.10800000000036</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="s">
+        <v>23</v>
+      </c>
+      <c r="B449" t="s">
+        <v>22</v>
+      </c>
+      <c r="C449" t="s">
+        <v>26</v>
+      </c>
+      <c r="D449" t="n">
+        <v>32</v>
+      </c>
+      <c r="E449" t="n">
+        <v>288</v>
+      </c>
+      <c r="F449" t="s">
+        <v>20</v>
+      </c>
+      <c r="G449" t="n">
+        <v>24279</v>
+      </c>
+      <c r="H449" t="s">
+        <v>21</v>
+      </c>
+      <c r="I449" t="n">
+        <v>24</v>
+      </c>
+      <c r="J449" t="n">
+        <v>10</v>
+      </c>
+      <c r="K449" t="n">
+        <v>0.497743642296515</v>
+      </c>
+      <c r="L449" t="n">
+        <v>0.416348973607038</v>
+      </c>
+      <c r="M449" t="n">
+        <v>1</v>
+      </c>
+      <c r="N449" t="n">
+        <v>0.288958352602355</v>
+      </c>
+      <c r="O449" t="n">
+        <v>0.221446680124767</v>
+      </c>
+      <c r="P449" t="n">
+        <v>0.157063767176004</v>
+      </c>
+      <c r="Q449" t="n">
+        <v>25.2890000000001</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="s">
+        <v>17</v>
+      </c>
+      <c r="B450" t="s">
+        <v>22</v>
+      </c>
+      <c r="C450" t="s">
+        <v>26</v>
+      </c>
+      <c r="D450" t="n">
+        <v>32</v>
+      </c>
+      <c r="E450" t="n">
+        <v>288</v>
+      </c>
+      <c r="F450" t="s">
+        <v>20</v>
+      </c>
+      <c r="G450" t="n">
+        <v>24279</v>
+      </c>
+      <c r="H450" t="s">
+        <v>21</v>
+      </c>
+      <c r="I450" t="n">
+        <v>25</v>
+      </c>
+      <c r="J450" t="n">
+        <v>10</v>
+      </c>
+      <c r="K450" t="n">
+        <v>0.444393341069378</v>
+      </c>
+      <c r="L450" t="n">
+        <v>0.382991202346041</v>
+      </c>
+      <c r="M450" t="n">
+        <v>1</v>
+      </c>
+      <c r="N450" t="n">
+        <v>0.291632995686138</v>
+      </c>
+      <c r="O450" t="n">
+        <v>0.221575526695697</v>
+      </c>
+      <c r="P450" t="n">
+        <v>0.162224583045391</v>
+      </c>
+      <c r="Q450" t="n">
+        <v>4.0880000000001</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="s">
+        <v>23</v>
+      </c>
+      <c r="B451" t="s">
+        <v>22</v>
+      </c>
+      <c r="C451" t="s">
+        <v>26</v>
+      </c>
+      <c r="D451" t="n">
+        <v>32</v>
+      </c>
+      <c r="E451" t="n">
+        <v>288</v>
+      </c>
+      <c r="F451" t="s">
+        <v>20</v>
+      </c>
+      <c r="G451" t="n">
+        <v>24279</v>
+      </c>
+      <c r="H451" t="s">
+        <v>21</v>
+      </c>
+      <c r="I451" t="n">
+        <v>25</v>
+      </c>
+      <c r="J451" t="n">
+        <v>10</v>
+      </c>
+      <c r="K451" t="n">
+        <v>0.440593320976425</v>
+      </c>
+      <c r="L451" t="n">
+        <v>0.378042521994135</v>
+      </c>
+      <c r="M451" t="n">
+        <v>1</v>
+      </c>
+      <c r="N451" t="n">
+        <v>0.291004943496619</v>
+      </c>
+      <c r="O451" t="n">
+        <v>0.221542884259726</v>
+      </c>
+      <c r="P451" t="n">
+        <v>0.1642862802114</v>
+      </c>
+      <c r="Q451" t="n">
+        <v>25.291</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="s">
+        <v>17</v>
+      </c>
+      <c r="B452" t="s">
+        <v>22</v>
+      </c>
+      <c r="C452" t="s">
+        <v>26</v>
+      </c>
+      <c r="D452" t="n">
+        <v>32</v>
+      </c>
+      <c r="E452" t="n">
+        <v>288</v>
+      </c>
+      <c r="F452" t="s">
+        <v>20</v>
+      </c>
+      <c r="G452" t="n">
+        <v>24279</v>
+      </c>
+      <c r="H452" t="s">
+        <v>21</v>
+      </c>
+      <c r="I452" t="n">
+        <v>26</v>
+      </c>
+      <c r="J452" t="n">
+        <v>10</v>
+      </c>
+      <c r="K452" t="n">
+        <v>0.475920941451698</v>
+      </c>
+      <c r="L452" t="n">
+        <v>0.37716275659824</v>
+      </c>
+      <c r="M452" t="n">
+        <v>1</v>
+      </c>
+      <c r="N452" t="n">
+        <v>0.286903708340579</v>
+      </c>
+      <c r="O452" t="n">
+        <v>0.219419665096042</v>
+      </c>
+      <c r="P452" t="n">
+        <v>0.181178534764193</v>
+      </c>
+      <c r="Q452" t="n">
+        <v>4.13599999999969</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="s">
+        <v>23</v>
+      </c>
+      <c r="B453" t="s">
+        <v>22</v>
+      </c>
+      <c r="C453" t="s">
+        <v>26</v>
+      </c>
+      <c r="D453" t="n">
+        <v>32</v>
+      </c>
+      <c r="E453" t="n">
+        <v>288</v>
+      </c>
+      <c r="F453" t="s">
+        <v>20</v>
+      </c>
+      <c r="G453" t="n">
+        <v>24279</v>
+      </c>
+      <c r="H453" t="s">
+        <v>21</v>
+      </c>
+      <c r="I453" t="n">
+        <v>26</v>
+      </c>
+      <c r="J453" t="n">
+        <v>10</v>
+      </c>
+      <c r="K453" t="n">
+        <v>0.469904995431434</v>
+      </c>
+      <c r="L453" t="n">
+        <v>0.372873900293255</v>
+      </c>
+      <c r="M453" t="n">
+        <v>1</v>
+      </c>
+      <c r="N453" t="n">
+        <v>0.287132044356789</v>
+      </c>
+      <c r="O453" t="n">
+        <v>0.21921812068111</v>
+      </c>
+      <c r="P453" t="n">
+        <v>0.18115353621479</v>
+      </c>
+      <c r="Q453" t="n">
+        <v>25.2860000000001</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="s">
+        <v>17</v>
+      </c>
+      <c r="B454" t="s">
+        <v>22</v>
+      </c>
+      <c r="C454" t="s">
+        <v>26</v>
+      </c>
+      <c r="D454" t="n">
+        <v>32</v>
+      </c>
+      <c r="E454" t="n">
+        <v>288</v>
+      </c>
+      <c r="F454" t="s">
+        <v>20</v>
+      </c>
+      <c r="G454" t="n">
+        <v>24279</v>
+      </c>
+      <c r="H454" t="s">
+        <v>21</v>
+      </c>
+      <c r="I454" t="n">
+        <v>27</v>
+      </c>
+      <c r="J454" t="n">
+        <v>10</v>
+      </c>
+      <c r="K454" t="n">
+        <v>0.464706099476199</v>
+      </c>
+      <c r="L454" t="n">
+        <v>0.372287390029326</v>
+      </c>
+      <c r="M454" t="n">
+        <v>1</v>
+      </c>
+      <c r="N454" t="n">
+        <v>0.288232661760592</v>
+      </c>
+      <c r="O454" t="n">
+        <v>0.219677636040172</v>
+      </c>
+      <c r="P454" t="n">
+        <v>0.160551220641827</v>
+      </c>
+      <c r="Q454" t="n">
+        <v>4.09699999999993</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="s">
+        <v>23</v>
+      </c>
+      <c r="B455" t="s">
+        <v>22</v>
+      </c>
+      <c r="C455" t="s">
+        <v>26</v>
+      </c>
+      <c r="D455" t="n">
+        <v>32</v>
+      </c>
+      <c r="E455" t="n">
+        <v>288</v>
+      </c>
+      <c r="F455" t="s">
+        <v>20</v>
+      </c>
+      <c r="G455" t="n">
+        <v>24279</v>
+      </c>
+      <c r="H455" t="s">
+        <v>21</v>
+      </c>
+      <c r="I455" t="n">
+        <v>27</v>
+      </c>
+      <c r="J455" t="n">
+        <v>10</v>
+      </c>
+      <c r="K455" t="n">
+        <v>0.467725170184366</v>
+      </c>
+      <c r="L455" t="n">
+        <v>0.369171554252199</v>
+      </c>
+      <c r="M455" t="n">
+        <v>1</v>
+      </c>
+      <c r="N455" t="n">
+        <v>0.28846624713481</v>
+      </c>
+      <c r="O455" t="n">
+        <v>0.219565572574967</v>
+      </c>
+      <c r="P455" t="n">
+        <v>0.159758715035786</v>
+      </c>
+      <c r="Q455" t="n">
+        <v>25.3189999999999</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="s">
+        <v>17</v>
+      </c>
+      <c r="B456" t="s">
+        <v>22</v>
+      </c>
+      <c r="C456" t="s">
+        <v>26</v>
+      </c>
+      <c r="D456" t="n">
+        <v>32</v>
+      </c>
+      <c r="E456" t="n">
+        <v>288</v>
+      </c>
+      <c r="F456" t="s">
+        <v>20</v>
+      </c>
+      <c r="G456" t="n">
+        <v>24279</v>
+      </c>
+      <c r="H456" t="s">
+        <v>21</v>
+      </c>
+      <c r="I456" t="n">
+        <v>28</v>
+      </c>
+      <c r="J456" t="n">
+        <v>10</v>
+      </c>
+      <c r="K456" t="n">
+        <v>0.464334148291453</v>
+      </c>
+      <c r="L456" t="n">
+        <v>0.377089442815249</v>
+      </c>
+      <c r="M456" t="n">
+        <v>1</v>
+      </c>
+      <c r="N456" t="n">
+        <v>0.290409715143308</v>
+      </c>
+      <c r="O456" t="n">
+        <v>0.223504177891345</v>
+      </c>
+      <c r="P456" t="n">
+        <v>0.146204538728913</v>
+      </c>
+      <c r="Q456" t="n">
+        <v>4.10499999999975</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="s">
+        <v>23</v>
+      </c>
+      <c r="B457" t="s">
+        <v>22</v>
+      </c>
+      <c r="C457" t="s">
+        <v>26</v>
+      </c>
+      <c r="D457" t="n">
+        <v>32</v>
+      </c>
+      <c r="E457" t="n">
+        <v>288</v>
+      </c>
+      <c r="F457" t="s">
+        <v>20</v>
+      </c>
+      <c r="G457" t="n">
+        <v>24279</v>
+      </c>
+      <c r="H457" t="s">
+        <v>21</v>
+      </c>
+      <c r="I457" t="n">
+        <v>28</v>
+      </c>
+      <c r="J457" t="n">
+        <v>10</v>
+      </c>
+      <c r="K457" t="n">
+        <v>0.463810125925469</v>
+      </c>
+      <c r="L457" t="n">
+        <v>0.369941348973607</v>
+      </c>
+      <c r="M457" t="n">
+        <v>1</v>
+      </c>
+      <c r="N457" t="n">
+        <v>0.290061570235883</v>
+      </c>
+      <c r="O457" t="n">
+        <v>0.223344657328057</v>
+      </c>
+      <c r="P457" t="n">
+        <v>0.147399778011525</v>
+      </c>
+      <c r="Q457" t="n">
+        <v>25.2730000000001</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="s">
+        <v>17</v>
+      </c>
+      <c r="B458" t="s">
+        <v>22</v>
+      </c>
+      <c r="C458" t="s">
+        <v>26</v>
+      </c>
+      <c r="D458" t="n">
+        <v>32</v>
+      </c>
+      <c r="E458" t="n">
+        <v>288</v>
+      </c>
+      <c r="F458" t="s">
+        <v>20</v>
+      </c>
+      <c r="G458" t="n">
+        <v>24279</v>
+      </c>
+      <c r="H458" t="s">
+        <v>21</v>
+      </c>
+      <c r="I458" t="n">
+        <v>29</v>
+      </c>
+      <c r="J458" t="n">
+        <v>10</v>
+      </c>
+      <c r="K458" t="n">
+        <v>0.440864774572783</v>
+      </c>
+      <c r="L458" t="n">
+        <v>0.375513196480938</v>
+      </c>
+      <c r="M458" t="n">
+        <v>1</v>
+      </c>
+      <c r="N458" t="n">
+        <v>0.290990871971734</v>
+      </c>
+      <c r="O458" t="n">
+        <v>0.223707116743017</v>
+      </c>
+      <c r="P458" t="n">
+        <v>0.159560703192667</v>
+      </c>
+      <c r="Q458" t="n">
+        <v>4.16900000000005</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="s">
+        <v>23</v>
+      </c>
+      <c r="B459" t="s">
+        <v>22</v>
+      </c>
+      <c r="C459" t="s">
+        <v>26</v>
+      </c>
+      <c r="D459" t="n">
+        <v>32</v>
+      </c>
+      <c r="E459" t="n">
+        <v>288</v>
+      </c>
+      <c r="F459" t="s">
+        <v>20</v>
+      </c>
+      <c r="G459" t="n">
+        <v>24279</v>
+      </c>
+      <c r="H459" t="s">
+        <v>21</v>
+      </c>
+      <c r="I459" t="n">
+        <v>29</v>
+      </c>
+      <c r="J459" t="n">
+        <v>10</v>
+      </c>
+      <c r="K459" t="n">
+        <v>0.448934624153162</v>
+      </c>
+      <c r="L459" t="n">
+        <v>0.374450146627566</v>
+      </c>
+      <c r="M459" t="n">
+        <v>1</v>
+      </c>
+      <c r="N459" t="n">
+        <v>0.290109050236784</v>
+      </c>
+      <c r="O459" t="n">
+        <v>0.222686922482765</v>
+      </c>
+      <c r="P459" t="n">
+        <v>0.165200166885715</v>
+      </c>
+      <c r="Q459" t="n">
+        <v>25.2710000000001</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="s">
+        <v>17</v>
+      </c>
+      <c r="B460" t="s">
+        <v>22</v>
+      </c>
+      <c r="C460" t="s">
+        <v>26</v>
+      </c>
+      <c r="D460" t="n">
+        <v>32</v>
+      </c>
+      <c r="E460" t="n">
+        <v>288</v>
+      </c>
+      <c r="F460" t="s">
+        <v>20</v>
+      </c>
+      <c r="G460" t="n">
+        <v>24279</v>
+      </c>
+      <c r="H460" t="s">
+        <v>21</v>
+      </c>
+      <c r="I460" t="n">
+        <v>30</v>
+      </c>
+      <c r="J460" t="n">
+        <v>10</v>
+      </c>
+      <c r="K460" t="n">
+        <v>0.426213565723975</v>
+      </c>
+      <c r="L460" t="n">
+        <v>0.365469208211144</v>
+      </c>
+      <c r="M460" t="n">
+        <v>1</v>
+      </c>
+      <c r="N460" t="n">
+        <v>0.285301381666546</v>
+      </c>
+      <c r="O460" t="n">
+        <v>0.222506862054817</v>
+      </c>
+      <c r="P460" t="n">
+        <v>0.105313795090201</v>
+      </c>
+      <c r="Q460" t="n">
+        <v>4.14200000000001</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="s">
+        <v>23</v>
+      </c>
+      <c r="B461" t="s">
+        <v>22</v>
+      </c>
+      <c r="C461" t="s">
+        <v>26</v>
+      </c>
+      <c r="D461" t="n">
+        <v>32</v>
+      </c>
+      <c r="E461" t="n">
+        <v>288</v>
+      </c>
+      <c r="F461" t="s">
+        <v>20</v>
+      </c>
+      <c r="G461" t="n">
+        <v>24279</v>
+      </c>
+      <c r="H461" t="s">
+        <v>21</v>
+      </c>
+      <c r="I461" t="n">
+        <v>30</v>
+      </c>
+      <c r="J461" t="n">
+        <v>10</v>
+      </c>
+      <c r="K461" t="n">
+        <v>0.434102539280116</v>
+      </c>
+      <c r="L461" t="n">
+        <v>0.380865102639296</v>
+      </c>
+      <c r="M461" t="n">
+        <v>1</v>
+      </c>
+      <c r="N461" t="n">
+        <v>0.283951004125038</v>
+      </c>
+      <c r="O461" t="n">
+        <v>0.221789280090508</v>
+      </c>
+      <c r="P461" t="n">
+        <v>0.116510525564474</v>
+      </c>
+      <c r="Q461" t="n">
+        <v>25.2580000000002</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="s">
+        <v>17</v>
+      </c>
+      <c r="B462" t="s">
+        <v>22</v>
+      </c>
+      <c r="C462" t="s">
+        <v>26</v>
+      </c>
+      <c r="D462" t="n">
+        <v>32</v>
+      </c>
+      <c r="E462" t="n">
+        <v>288</v>
+      </c>
+      <c r="F462" t="s">
+        <v>20</v>
+      </c>
+      <c r="G462" t="n">
+        <v>24279</v>
+      </c>
+      <c r="H462" t="s">
+        <v>21</v>
+      </c>
+      <c r="I462" t="n">
+        <v>31</v>
+      </c>
+      <c r="J462" t="n">
+        <v>10</v>
+      </c>
+      <c r="K462" t="n">
+        <v>0.489770906117301</v>
+      </c>
+      <c r="L462" t="n">
+        <v>0.393511730205279</v>
+      </c>
+      <c r="M462" t="n">
+        <v>1</v>
+      </c>
+      <c r="N462" t="n">
+        <v>0.287411041920791</v>
+      </c>
+      <c r="O462" t="n">
+        <v>0.219674277606706</v>
+      </c>
+      <c r="P462" t="n">
+        <v>0.163267739336292</v>
+      </c>
+      <c r="Q462" t="n">
+        <v>4.13499999999985</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="s">
+        <v>23</v>
+      </c>
+      <c r="B463" t="s">
+        <v>22</v>
+      </c>
+      <c r="C463" t="s">
+        <v>26</v>
+      </c>
+      <c r="D463" t="n">
+        <v>32</v>
+      </c>
+      <c r="E463" t="n">
+        <v>288</v>
+      </c>
+      <c r="F463" t="s">
+        <v>20</v>
+      </c>
+      <c r="G463" t="n">
+        <v>24279</v>
+      </c>
+      <c r="H463" t="s">
+        <v>21</v>
+      </c>
+      <c r="I463" t="n">
+        <v>31</v>
+      </c>
+      <c r="J463" t="n">
+        <v>10</v>
+      </c>
+      <c r="K463" t="n">
+        <v>0.480911728808102</v>
+      </c>
+      <c r="L463" t="n">
+        <v>0.376612903225806</v>
+      </c>
+      <c r="M463" t="n">
+        <v>1</v>
+      </c>
+      <c r="N463" t="n">
+        <v>0.288350894116509</v>
+      </c>
+      <c r="O463" t="n">
+        <v>0.220270439202128</v>
+      </c>
+      <c r="P463" t="n">
+        <v>0.15796241513123</v>
+      </c>
+      <c r="Q463" t="n">
+        <v>25.323</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="s">
+        <v>17</v>
+      </c>
+      <c r="B464" t="s">
+        <v>22</v>
+      </c>
+      <c r="C464" t="s">
+        <v>26</v>
+      </c>
+      <c r="D464" t="n">
+        <v>32</v>
+      </c>
+      <c r="E464" t="n">
+        <v>288</v>
+      </c>
+      <c r="F464" t="s">
+        <v>20</v>
+      </c>
+      <c r="G464" t="n">
+        <v>24279</v>
+      </c>
+      <c r="H464" t="s">
+        <v>21</v>
+      </c>
+      <c r="I464" t="n">
+        <v>32</v>
+      </c>
+      <c r="J464" t="n">
+        <v>10</v>
+      </c>
+      <c r="K464" t="n">
+        <v>0.396766163423996</v>
+      </c>
+      <c r="L464" t="n">
+        <v>0.348240469208211</v>
+      </c>
+      <c r="M464" t="n">
+        <v>1</v>
+      </c>
+      <c r="N464" t="n">
+        <v>0.291380087437018</v>
+      </c>
+      <c r="O464" t="n">
+        <v>0.223644237079554</v>
+      </c>
+      <c r="P464" t="n">
+        <v>0.106767569651216</v>
+      </c>
+      <c r="Q464" t="n">
+        <v>4.14100000000017</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="s">
+        <v>23</v>
+      </c>
+      <c r="B465" t="s">
+        <v>22</v>
+      </c>
+      <c r="C465" t="s">
+        <v>26</v>
+      </c>
+      <c r="D465" t="n">
+        <v>32</v>
+      </c>
+      <c r="E465" t="n">
+        <v>288</v>
+      </c>
+      <c r="F465" t="s">
+        <v>20</v>
+      </c>
+      <c r="G465" t="n">
+        <v>24279</v>
+      </c>
+      <c r="H465" t="s">
+        <v>21</v>
+      </c>
+      <c r="I465" t="n">
+        <v>32</v>
+      </c>
+      <c r="J465" t="n">
+        <v>10</v>
+      </c>
+      <c r="K465" t="n">
+        <v>0.400695746567907</v>
+      </c>
+      <c r="L465" t="n">
+        <v>0.340909090909091</v>
+      </c>
+      <c r="M465" t="n">
+        <v>1</v>
+      </c>
+      <c r="N465" t="n">
+        <v>0.289950878339306</v>
+      </c>
+      <c r="O465" t="n">
+        <v>0.222692395700847</v>
+      </c>
+      <c r="P465" t="n">
+        <v>0.117320434901261</v>
+      </c>
+      <c r="Q465" t="n">
+        <v>25.2719999999999</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="s">
+        <v>17</v>
+      </c>
+      <c r="B466" t="s">
+        <v>22</v>
+      </c>
+      <c r="C466" t="s">
+        <v>26</v>
+      </c>
+      <c r="D466" t="n">
+        <v>32</v>
+      </c>
+      <c r="E466" t="n">
+        <v>288</v>
+      </c>
+      <c r="F466" t="s">
+        <v>20</v>
+      </c>
+      <c r="G466" t="n">
+        <v>24279</v>
+      </c>
+      <c r="H466" t="s">
+        <v>21</v>
+      </c>
+      <c r="I466" t="n">
+        <v>33</v>
+      </c>
+      <c r="J466" t="n">
+        <v>10</v>
+      </c>
+      <c r="K466" t="n">
+        <v>0.455733405999294</v>
+      </c>
+      <c r="L466" t="n">
+        <v>0.355461876832845</v>
+      </c>
+      <c r="M466" t="n">
+        <v>1</v>
+      </c>
+      <c r="N466" t="n">
+        <v>0.289512165849097</v>
+      </c>
+      <c r="O466" t="n">
+        <v>0.221425636658063</v>
+      </c>
+      <c r="P466" t="n">
+        <v>0.19565976382657</v>
+      </c>
+      <c r="Q466" t="n">
+        <v>4.19600000000009</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="s">
+        <v>23</v>
+      </c>
+      <c r="B467" t="s">
+        <v>22</v>
+      </c>
+      <c r="C467" t="s">
+        <v>26</v>
+      </c>
+      <c r="D467" t="n">
+        <v>32</v>
+      </c>
+      <c r="E467" t="n">
+        <v>288</v>
+      </c>
+      <c r="F467" t="s">
+        <v>20</v>
+      </c>
+      <c r="G467" t="n">
+        <v>24279</v>
+      </c>
+      <c r="H467" t="s">
+        <v>21</v>
+      </c>
+      <c r="I467" t="n">
+        <v>33</v>
+      </c>
+      <c r="J467" t="n">
+        <v>10</v>
+      </c>
+      <c r="K467" t="n">
+        <v>0.452555110748518</v>
+      </c>
+      <c r="L467" t="n">
+        <v>0.350989736070381</v>
+      </c>
+      <c r="M467" t="n">
+        <v>1</v>
+      </c>
+      <c r="N467" t="n">
+        <v>0.289932390168256</v>
+      </c>
+      <c r="O467" t="n">
+        <v>0.222085711367337</v>
+      </c>
+      <c r="P467" t="n">
+        <v>0.192939162335793</v>
+      </c>
+      <c r="Q467" t="n">
+        <v>25.2799999999999</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="s">
+        <v>17</v>
+      </c>
+      <c r="B468" t="s">
+        <v>22</v>
+      </c>
+      <c r="C468" t="s">
+        <v>26</v>
+      </c>
+      <c r="D468" t="n">
+        <v>32</v>
+      </c>
+      <c r="E468" t="n">
+        <v>288</v>
+      </c>
+      <c r="F468" t="s">
+        <v>20</v>
+      </c>
+      <c r="G468" t="n">
+        <v>24279</v>
+      </c>
+      <c r="H468" t="s">
+        <v>21</v>
+      </c>
+      <c r="I468" t="n">
+        <v>34</v>
+      </c>
+      <c r="J468" t="n">
+        <v>10</v>
+      </c>
+      <c r="K468" t="n">
+        <v>0.489695232142883</v>
+      </c>
+      <c r="L468" t="n">
+        <v>0.3908357771261</v>
+      </c>
+      <c r="M468" t="n">
+        <v>1</v>
+      </c>
+      <c r="N468" t="n">
+        <v>0.286205509452325</v>
+      </c>
+      <c r="O468" t="n">
+        <v>0.218273689956798</v>
+      </c>
+      <c r="P468" t="n">
+        <v>0.210743126575446</v>
+      </c>
+      <c r="Q468" t="n">
+        <v>4.15</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="s">
+        <v>23</v>
+      </c>
+      <c r="B469" t="s">
+        <v>22</v>
+      </c>
+      <c r="C469" t="s">
+        <v>26</v>
+      </c>
+      <c r="D469" t="n">
+        <v>32</v>
+      </c>
+      <c r="E469" t="n">
+        <v>288</v>
+      </c>
+      <c r="F469" t="s">
+        <v>20</v>
+      </c>
+      <c r="G469" t="n">
+        <v>24279</v>
+      </c>
+      <c r="H469" t="s">
+        <v>21</v>
+      </c>
+      <c r="I469" t="n">
+        <v>34</v>
+      </c>
+      <c r="J469" t="n">
+        <v>10</v>
+      </c>
+      <c r="K469" t="n">
+        <v>0.490327977611272</v>
+      </c>
+      <c r="L469" t="n">
+        <v>0.372104105571847</v>
+      </c>
+      <c r="M469" t="n">
+        <v>1</v>
+      </c>
+      <c r="N469" t="n">
+        <v>0.286022813661655</v>
+      </c>
+      <c r="O469" t="n">
+        <v>0.218608137444313</v>
+      </c>
+      <c r="P469" t="n">
+        <v>0.211798321424482</v>
+      </c>
+      <c r="Q469" t="n">
+        <v>25.2780000000001</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="s">
+        <v>17</v>
+      </c>
+      <c r="B470" t="s">
+        <v>22</v>
+      </c>
+      <c r="C470" t="s">
+        <v>26</v>
+      </c>
+      <c r="D470" t="n">
+        <v>32</v>
+      </c>
+      <c r="E470" t="n">
+        <v>288</v>
+      </c>
+      <c r="F470" t="s">
+        <v>20</v>
+      </c>
+      <c r="G470" t="n">
+        <v>24279</v>
+      </c>
+      <c r="H470" t="s">
+        <v>21</v>
+      </c>
+      <c r="I470" t="n">
+        <v>35</v>
+      </c>
+      <c r="J470" t="n">
+        <v>10</v>
+      </c>
+      <c r="K470" t="n">
+        <v>0.464525285476034</v>
+      </c>
+      <c r="L470" t="n">
+        <v>0.385263929618768</v>
+      </c>
+      <c r="M470" t="n">
+        <v>1</v>
+      </c>
+      <c r="N470" t="n">
+        <v>0.287787198276885</v>
+      </c>
+      <c r="O470" t="n">
+        <v>0.21839775588157</v>
+      </c>
+      <c r="P470" t="n">
+        <v>0.175302157719272</v>
+      </c>
+      <c r="Q470" t="n">
+        <v>4.15899999999983</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="s">
+        <v>23</v>
+      </c>
+      <c r="B471" t="s">
+        <v>22</v>
+      </c>
+      <c r="C471" t="s">
+        <v>26</v>
+      </c>
+      <c r="D471" t="n">
+        <v>32</v>
+      </c>
+      <c r="E471" t="n">
+        <v>288</v>
+      </c>
+      <c r="F471" t="s">
+        <v>20</v>
+      </c>
+      <c r="G471" t="n">
+        <v>24279</v>
+      </c>
+      <c r="H471" t="s">
+        <v>21</v>
+      </c>
+      <c r="I471" t="n">
+        <v>35</v>
+      </c>
+      <c r="J471" t="n">
+        <v>10</v>
+      </c>
+      <c r="K471" t="n">
+        <v>0.459485298892058</v>
+      </c>
+      <c r="L471" t="n">
+        <v>0.379618768328446</v>
+      </c>
+      <c r="M471" t="n">
+        <v>1</v>
+      </c>
+      <c r="N471" t="n">
+        <v>0.28860326744415</v>
+      </c>
+      <c r="O471" t="n">
+        <v>0.219289549255681</v>
+      </c>
+      <c r="P471" t="n">
+        <v>0.169593600905323</v>
+      </c>
+      <c r="Q471" t="n">
+        <v>25.2819999999998</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="s">
+        <v>17</v>
+      </c>
+      <c r="B472" t="s">
+        <v>22</v>
+      </c>
+      <c r="C472" t="s">
+        <v>26</v>
+      </c>
+      <c r="D472" t="n">
+        <v>32</v>
+      </c>
+      <c r="E472" t="n">
+        <v>288</v>
+      </c>
+      <c r="F472" t="s">
+        <v>20</v>
+      </c>
+      <c r="G472" t="n">
+        <v>24279</v>
+      </c>
+      <c r="H472" t="s">
+        <v>21</v>
+      </c>
+      <c r="I472" t="n">
+        <v>36</v>
+      </c>
+      <c r="J472" t="n">
+        <v>10</v>
+      </c>
+      <c r="K472" t="n">
+        <v>0.474676986153542</v>
+      </c>
+      <c r="L472" t="n">
+        <v>0.396151026392962</v>
+      </c>
+      <c r="M472" t="n">
+        <v>1</v>
+      </c>
+      <c r="N472" t="n">
+        <v>0.29085227486838</v>
+      </c>
+      <c r="O472" t="n">
+        <v>0.219563038346982</v>
+      </c>
+      <c r="P472" t="n">
+        <v>0.164081568280064</v>
+      </c>
+      <c r="Q472" t="n">
+        <v>4.19900000000016</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="s">
+        <v>23</v>
+      </c>
+      <c r="B473" t="s">
+        <v>22</v>
+      </c>
+      <c r="C473" t="s">
+        <v>26</v>
+      </c>
+      <c r="D473" t="n">
+        <v>32</v>
+      </c>
+      <c r="E473" t="n">
+        <v>288</v>
+      </c>
+      <c r="F473" t="s">
+        <v>20</v>
+      </c>
+      <c r="G473" t="n">
+        <v>24279</v>
+      </c>
+      <c r="H473" t="s">
+        <v>21</v>
+      </c>
+      <c r="I473" t="n">
+        <v>36</v>
+      </c>
+      <c r="J473" t="n">
+        <v>10</v>
+      </c>
+      <c r="K473" t="n">
+        <v>0.469272098185695</v>
+      </c>
+      <c r="L473" t="n">
+        <v>0.384824046920821</v>
+      </c>
+      <c r="M473" t="n">
+        <v>1</v>
+      </c>
+      <c r="N473" t="n">
+        <v>0.291894921215625</v>
+      </c>
+      <c r="O473" t="n">
+        <v>0.220756229728454</v>
+      </c>
+      <c r="P473" t="n">
+        <v>0.159594090919559</v>
+      </c>
+      <c r="Q473" t="n">
+        <v>25.2830000000002</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="s">
+        <v>17</v>
+      </c>
+      <c r="B474" t="s">
+        <v>22</v>
+      </c>
+      <c r="C474" t="s">
+        <v>26</v>
+      </c>
+      <c r="D474" t="n">
+        <v>32</v>
+      </c>
+      <c r="E474" t="n">
+        <v>288</v>
+      </c>
+      <c r="F474" t="s">
+        <v>20</v>
+      </c>
+      <c r="G474" t="n">
+        <v>24279</v>
+      </c>
+      <c r="H474" t="s">
+        <v>21</v>
+      </c>
+      <c r="I474" t="n">
+        <v>37</v>
+      </c>
+      <c r="J474" t="n">
+        <v>10</v>
+      </c>
+      <c r="K474" t="n">
+        <v>0.47702514310716</v>
+      </c>
+      <c r="L474" t="n">
+        <v>0.393658357771261</v>
+      </c>
+      <c r="M474" t="n">
+        <v>1</v>
+      </c>
+      <c r="N474" t="n">
+        <v>0.286955018007374</v>
+      </c>
+      <c r="O474" t="n">
+        <v>0.219658288611097</v>
+      </c>
+      <c r="P474" t="n">
+        <v>0.180087735085123</v>
+      </c>
+      <c r="Q474" t="n">
+        <v>4.12900000000009</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="s">
+        <v>23</v>
+      </c>
+      <c r="B475" t="s">
+        <v>22</v>
+      </c>
+      <c r="C475" t="s">
+        <v>26</v>
+      </c>
+      <c r="D475" t="n">
+        <v>32</v>
+      </c>
+      <c r="E475" t="n">
+        <v>288</v>
+      </c>
+      <c r="F475" t="s">
+        <v>20</v>
+      </c>
+      <c r="G475" t="n">
+        <v>24279</v>
+      </c>
+      <c r="H475" t="s">
+        <v>21</v>
+      </c>
+      <c r="I475" t="n">
+        <v>37</v>
+      </c>
+      <c r="J475" t="n">
+        <v>10</v>
+      </c>
+      <c r="K475" t="n">
+        <v>0.474872472122761</v>
+      </c>
+      <c r="L475" t="n">
+        <v>0.395674486803519</v>
+      </c>
+      <c r="M475" t="n">
+        <v>1</v>
+      </c>
+      <c r="N475" t="n">
+        <v>0.28701481679139</v>
+      </c>
+      <c r="O475" t="n">
+        <v>0.219017637379487</v>
+      </c>
+      <c r="P475" t="n">
+        <v>0.179820389563614</v>
+      </c>
+      <c r="Q475" t="n">
+        <v>25.2950000000003</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="s">
+        <v>17</v>
+      </c>
+      <c r="B476" t="s">
+        <v>22</v>
+      </c>
+      <c r="C476" t="s">
+        <v>26</v>
+      </c>
+      <c r="D476" t="n">
+        <v>32</v>
+      </c>
+      <c r="E476" t="n">
+        <v>288</v>
+      </c>
+      <c r="F476" t="s">
+        <v>20</v>
+      </c>
+      <c r="G476" t="n">
+        <v>24279</v>
+      </c>
+      <c r="H476" t="s">
+        <v>21</v>
+      </c>
+      <c r="I476" t="n">
+        <v>38</v>
+      </c>
+      <c r="J476" t="n">
+        <v>10</v>
+      </c>
+      <c r="K476" t="n">
+        <v>0.460829360378961</v>
+      </c>
+      <c r="L476" t="n">
+        <v>0.390139296187683</v>
+      </c>
+      <c r="M476" t="n">
+        <v>1</v>
+      </c>
+      <c r="N476" t="n">
+        <v>0.288848194446725</v>
+      </c>
+      <c r="O476" t="n">
+        <v>0.221096046992362</v>
+      </c>
+      <c r="P476" t="n">
+        <v>0.165476975922505</v>
+      </c>
+      <c r="Q476" t="n">
+        <v>4.15599999999977</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="s">
+        <v>23</v>
+      </c>
+      <c r="B477" t="s">
+        <v>22</v>
+      </c>
+      <c r="C477" t="s">
+        <v>26</v>
+      </c>
+      <c r="D477" t="n">
+        <v>32</v>
+      </c>
+      <c r="E477" t="n">
+        <v>288</v>
+      </c>
+      <c r="F477" t="s">
+        <v>20</v>
+      </c>
+      <c r="G477" t="n">
+        <v>24279</v>
+      </c>
+      <c r="H477" t="s">
+        <v>21</v>
+      </c>
+      <c r="I477" t="n">
+        <v>38</v>
+      </c>
+      <c r="J477" t="n">
+        <v>10</v>
+      </c>
+      <c r="K477" t="n">
+        <v>0.458931126767451</v>
+      </c>
+      <c r="L477" t="n">
+        <v>0.387206744868035</v>
+      </c>
+      <c r="M477" t="n">
+        <v>1</v>
+      </c>
+      <c r="N477" t="n">
+        <v>0.288734775703742</v>
+      </c>
+      <c r="O477" t="n">
+        <v>0.22063767907605</v>
+      </c>
+      <c r="P477" t="n">
+        <v>0.167320570496813</v>
+      </c>
+      <c r="Q477" t="n">
+        <v>25.277</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="s">
+        <v>17</v>
+      </c>
+      <c r="B478" t="s">
+        <v>22</v>
+      </c>
+      <c r="C478" t="s">
+        <v>26</v>
+      </c>
+      <c r="D478" t="n">
+        <v>32</v>
+      </c>
+      <c r="E478" t="n">
+        <v>288</v>
+      </c>
+      <c r="F478" t="s">
+        <v>20</v>
+      </c>
+      <c r="G478" t="n">
+        <v>24279</v>
+      </c>
+      <c r="H478" t="s">
+        <v>21</v>
+      </c>
+      <c r="I478" t="n">
+        <v>39</v>
+      </c>
+      <c r="J478" t="n">
+        <v>10</v>
+      </c>
+      <c r="K478" t="n">
+        <v>0.481333813254163</v>
+      </c>
+      <c r="L478" t="n">
+        <v>0.396554252199413</v>
+      </c>
+      <c r="M478" t="n">
+        <v>1</v>
+      </c>
+      <c r="N478" t="n">
+        <v>0.288658334433004</v>
+      </c>
+      <c r="O478" t="n">
+        <v>0.220998682835152</v>
+      </c>
+      <c r="P478" t="n">
+        <v>0.205814333265509</v>
+      </c>
+      <c r="Q478" t="n">
+        <v>4.17699999999968</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="s">
+        <v>23</v>
+      </c>
+      <c r="B479" t="s">
+        <v>22</v>
+      </c>
+      <c r="C479" t="s">
+        <v>26</v>
+      </c>
+      <c r="D479" t="n">
+        <v>32</v>
+      </c>
+      <c r="E479" t="n">
+        <v>288</v>
+      </c>
+      <c r="F479" t="s">
+        <v>20</v>
+      </c>
+      <c r="G479" t="n">
+        <v>24279</v>
+      </c>
+      <c r="H479" t="s">
+        <v>21</v>
+      </c>
+      <c r="I479" t="n">
+        <v>39</v>
+      </c>
+      <c r="J479" t="n">
+        <v>10</v>
+      </c>
+      <c r="K479" t="n">
+        <v>0.482822963178095</v>
+      </c>
+      <c r="L479" t="n">
+        <v>0.398387096774194</v>
+      </c>
+      <c r="M479" t="n">
+        <v>1</v>
+      </c>
+      <c r="N479" t="n">
+        <v>0.288417174428252</v>
+      </c>
+      <c r="O479" t="n">
+        <v>0.221088011946188</v>
+      </c>
+      <c r="P479" t="n">
+        <v>0.207050180266732</v>
+      </c>
+      <c r="Q479" t="n">
+        <v>25.275</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="s">
+        <v>17</v>
+      </c>
+      <c r="B480" t="s">
+        <v>22</v>
+      </c>
+      <c r="C480" t="s">
+        <v>26</v>
+      </c>
+      <c r="D480" t="n">
+        <v>32</v>
+      </c>
+      <c r="E480" t="n">
+        <v>288</v>
+      </c>
+      <c r="F480" t="s">
+        <v>20</v>
+      </c>
+      <c r="G480" t="n">
+        <v>24279</v>
+      </c>
+      <c r="H480" t="s">
+        <v>21</v>
+      </c>
+      <c r="I480" t="n">
+        <v>40</v>
+      </c>
+      <c r="J480" t="n">
+        <v>10</v>
+      </c>
+      <c r="K480" t="n">
+        <v>0.417132061020472</v>
+      </c>
+      <c r="L480" t="n">
+        <v>0.355241935483871</v>
+      </c>
+      <c r="M480" t="n">
+        <v>1</v>
+      </c>
+      <c r="N480" t="n">
+        <v>0.291185724467351</v>
+      </c>
+      <c r="O480" t="n">
+        <v>0.222957832356556</v>
+      </c>
+      <c r="P480" t="n">
+        <v>0.111485832525861</v>
+      </c>
+      <c r="Q480" t="n">
+        <v>4.11499999999978</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="s">
+        <v>23</v>
+      </c>
+      <c r="B481" t="s">
+        <v>22</v>
+      </c>
+      <c r="C481" t="s">
+        <v>26</v>
+      </c>
+      <c r="D481" t="n">
+        <v>32</v>
+      </c>
+      <c r="E481" t="n">
+        <v>288</v>
+      </c>
+      <c r="F481" t="s">
+        <v>20</v>
+      </c>
+      <c r="G481" t="n">
+        <v>24279</v>
+      </c>
+      <c r="H481" t="s">
+        <v>21</v>
+      </c>
+      <c r="I481" t="n">
+        <v>40</v>
+      </c>
+      <c r="J481" t="n">
+        <v>10</v>
+      </c>
+      <c r="K481" t="n">
+        <v>0.41287803108405</v>
+      </c>
+      <c r="L481" t="n">
+        <v>0.361400293255132</v>
+      </c>
+      <c r="M481" t="n">
+        <v>1</v>
+      </c>
+      <c r="N481" t="n">
+        <v>0.291352769874527</v>
+      </c>
+      <c r="O481" t="n">
+        <v>0.223347629679168</v>
+      </c>
+      <c r="P481" t="n">
+        <v>0.113681792113568</v>
+      </c>
+      <c r="Q481" t="n">
+        <v>25.2789999999995</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="s">
+        <v>17</v>
+      </c>
+      <c r="B482" t="s">
+        <v>22</v>
+      </c>
+      <c r="C482" t="s">
+        <v>26</v>
+      </c>
+      <c r="D482" t="n">
+        <v>32</v>
+      </c>
+      <c r="E482" t="n">
+        <v>288</v>
+      </c>
+      <c r="F482" t="s">
+        <v>20</v>
+      </c>
+      <c r="G482" t="n">
+        <v>24279</v>
+      </c>
+      <c r="H482" t="s">
+        <v>21</v>
+      </c>
+      <c r="I482" t="n">
+        <v>41</v>
+      </c>
+      <c r="J482" t="n">
+        <v>10</v>
+      </c>
+      <c r="K482" t="n">
+        <v>0.47042273408824</v>
+      </c>
+      <c r="L482" t="n">
+        <v>0.433101173020528</v>
+      </c>
+      <c r="M482" t="n">
+        <v>1</v>
+      </c>
+      <c r="N482" t="n">
+        <v>0.28442720891169</v>
+      </c>
+      <c r="O482" t="n">
+        <v>0.220290051134396</v>
+      </c>
+      <c r="P482" t="n">
+        <v>0.0851861103498342</v>
+      </c>
+      <c r="Q482" t="n">
+        <v>4.13199999999997</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="s">
+        <v>23</v>
+      </c>
+      <c r="B483" t="s">
+        <v>22</v>
+      </c>
+      <c r="C483" t="s">
+        <v>26</v>
+      </c>
+      <c r="D483" t="n">
+        <v>32</v>
+      </c>
+      <c r="E483" t="n">
+        <v>288</v>
+      </c>
+      <c r="F483" t="s">
+        <v>20</v>
+      </c>
+      <c r="G483" t="n">
+        <v>24279</v>
+      </c>
+      <c r="H483" t="s">
+        <v>21</v>
+      </c>
+      <c r="I483" t="n">
+        <v>41</v>
+      </c>
+      <c r="J483" t="n">
+        <v>10</v>
+      </c>
+      <c r="K483" t="n">
+        <v>0.471377354511504</v>
+      </c>
+      <c r="L483" t="n">
+        <v>0.428409090909091</v>
+      </c>
+      <c r="M483" t="n">
+        <v>1</v>
+      </c>
+      <c r="N483" t="n">
+        <v>0.284536371705702</v>
+      </c>
+      <c r="O483" t="n">
+        <v>0.221127309592942</v>
+      </c>
+      <c r="P483" t="n">
+        <v>0.0843754092141459</v>
+      </c>
+      <c r="Q483" t="n">
+        <v>25.341</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="s">
+        <v>17</v>
+      </c>
+      <c r="B484" t="s">
+        <v>22</v>
+      </c>
+      <c r="C484" t="s">
+        <v>26</v>
+      </c>
+      <c r="D484" t="n">
+        <v>32</v>
+      </c>
+      <c r="E484" t="n">
+        <v>288</v>
+      </c>
+      <c r="F484" t="s">
+        <v>20</v>
+      </c>
+      <c r="G484" t="n">
+        <v>24279</v>
+      </c>
+      <c r="H484" t="s">
+        <v>21</v>
+      </c>
+      <c r="I484" t="n">
+        <v>42</v>
+      </c>
+      <c r="J484" t="n">
+        <v>10</v>
+      </c>
+      <c r="K484" t="n">
+        <v>0.475349607290157</v>
+      </c>
+      <c r="L484" t="n">
+        <v>0.382954545454545</v>
+      </c>
+      <c r="M484" t="n">
+        <v>1</v>
+      </c>
+      <c r="N484" t="n">
+        <v>0.28772611786935</v>
+      </c>
+      <c r="O484" t="n">
+        <v>0.220179038270301</v>
+      </c>
+      <c r="P484" t="n">
+        <v>0.195099075104912</v>
+      </c>
+      <c r="Q484" t="n">
+        <v>4.10899999999965</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="s">
+        <v>23</v>
+      </c>
+      <c r="B485" t="s">
+        <v>22</v>
+      </c>
+      <c r="C485" t="s">
+        <v>26</v>
+      </c>
+      <c r="D485" t="n">
+        <v>32</v>
+      </c>
+      <c r="E485" t="n">
+        <v>288</v>
+      </c>
+      <c r="F485" t="s">
+        <v>20</v>
+      </c>
+      <c r="G485" t="n">
+        <v>24279</v>
+      </c>
+      <c r="H485" t="s">
+        <v>21</v>
+      </c>
+      <c r="I485" t="n">
+        <v>42</v>
+      </c>
+      <c r="J485" t="n">
+        <v>10</v>
+      </c>
+      <c r="K485" t="n">
+        <v>0.474048709073229</v>
+      </c>
+      <c r="L485" t="n">
+        <v>0.369794721407625</v>
+      </c>
+      <c r="M485" t="n">
+        <v>1</v>
+      </c>
+      <c r="N485" t="n">
+        <v>0.287588252385166</v>
+      </c>
+      <c r="O485" t="n">
+        <v>0.220085024963852</v>
+      </c>
+      <c r="P485" t="n">
+        <v>0.195666137121181</v>
+      </c>
+      <c r="Q485" t="n">
+        <v>25.282</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="s">
+        <v>17</v>
+      </c>
+      <c r="B486" t="s">
+        <v>22</v>
+      </c>
+      <c r="C486" t="s">
+        <v>26</v>
+      </c>
+      <c r="D486" t="n">
+        <v>32</v>
+      </c>
+      <c r="E486" t="n">
+        <v>288</v>
+      </c>
+      <c r="F486" t="s">
+        <v>20</v>
+      </c>
+      <c r="G486" t="n">
+        <v>24279</v>
+      </c>
+      <c r="H486" t="s">
+        <v>21</v>
+      </c>
+      <c r="I486" t="n">
+        <v>43</v>
+      </c>
+      <c r="J486" t="n">
+        <v>10</v>
+      </c>
+      <c r="K486" t="n">
+        <v>0.476214131307391</v>
+      </c>
+      <c r="L486" t="n">
+        <v>0.375036656891496</v>
+      </c>
+      <c r="M486" t="n">
+        <v>1</v>
+      </c>
+      <c r="N486" t="n">
+        <v>0.290156322412204</v>
+      </c>
+      <c r="O486" t="n">
+        <v>0.221438517971389</v>
+      </c>
+      <c r="P486" t="n">
+        <v>0.176279250104651</v>
+      </c>
+      <c r="Q486" t="n">
+        <v>4.09999999999982</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="s">
+        <v>23</v>
+      </c>
+      <c r="B487" t="s">
+        <v>22</v>
+      </c>
+      <c r="C487" t="s">
+        <v>26</v>
+      </c>
+      <c r="D487" t="n">
+        <v>32</v>
+      </c>
+      <c r="E487" t="n">
+        <v>288</v>
+      </c>
+      <c r="F487" t="s">
+        <v>20</v>
+      </c>
+      <c r="G487" t="n">
+        <v>24279</v>
+      </c>
+      <c r="H487" t="s">
+        <v>21</v>
+      </c>
+      <c r="I487" t="n">
+        <v>43</v>
+      </c>
+      <c r="J487" t="n">
+        <v>10</v>
+      </c>
+      <c r="K487" t="n">
+        <v>0.478087124105925</v>
+      </c>
+      <c r="L487" t="n">
+        <v>0.369354838709677</v>
+      </c>
+      <c r="M487" t="n">
+        <v>1</v>
+      </c>
+      <c r="N487" t="n">
+        <v>0.290541784374282</v>
+      </c>
+      <c r="O487" t="n">
+        <v>0.221108756540145</v>
+      </c>
+      <c r="P487" t="n">
+        <v>0.174074030633054</v>
+      </c>
+      <c r="Q487" t="n">
+        <v>25.3059999999999</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="s">
+        <v>17</v>
+      </c>
+      <c r="B488" t="s">
+        <v>22</v>
+      </c>
+      <c r="C488" t="s">
+        <v>26</v>
+      </c>
+      <c r="D488" t="n">
+        <v>32</v>
+      </c>
+      <c r="E488" t="n">
+        <v>288</v>
+      </c>
+      <c r="F488" t="s">
+        <v>20</v>
+      </c>
+      <c r="G488" t="n">
+        <v>24279</v>
+      </c>
+      <c r="H488" t="s">
+        <v>21</v>
+      </c>
+      <c r="I488" t="n">
+        <v>44</v>
+      </c>
+      <c r="J488" t="n">
+        <v>10</v>
+      </c>
+      <c r="K488" t="n">
+        <v>0.419646416648391</v>
+      </c>
+      <c r="L488" t="n">
+        <v>0.385007331378299</v>
+      </c>
+      <c r="M488" t="n">
+        <v>1</v>
+      </c>
+      <c r="N488" t="n">
+        <v>0.291342898933122</v>
+      </c>
+      <c r="O488" t="n">
+        <v>0.222750126405144</v>
+      </c>
+      <c r="P488" t="n">
+        <v>0.148666521196964</v>
+      </c>
+      <c r="Q488" t="n">
+        <v>4.12200000000012</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="s">
+        <v>23</v>
+      </c>
+      <c r="B489" t="s">
+        <v>22</v>
+      </c>
+      <c r="C489" t="s">
+        <v>26</v>
+      </c>
+      <c r="D489" t="n">
+        <v>32</v>
+      </c>
+      <c r="E489" t="n">
+        <v>288</v>
+      </c>
+      <c r="F489" t="s">
+        <v>20</v>
+      </c>
+      <c r="G489" t="n">
+        <v>24279</v>
+      </c>
+      <c r="H489" t="s">
+        <v>21</v>
+      </c>
+      <c r="I489" t="n">
+        <v>44</v>
+      </c>
+      <c r="J489" t="n">
+        <v>10</v>
+      </c>
+      <c r="K489" t="n">
+        <v>0.41921656644612</v>
+      </c>
+      <c r="L489" t="n">
+        <v>0.371370967741935</v>
+      </c>
+      <c r="M489" t="n">
+        <v>1</v>
+      </c>
+      <c r="N489" t="n">
+        <v>0.290582665993446</v>
+      </c>
+      <c r="O489" t="n">
+        <v>0.221878682524666</v>
+      </c>
+      <c r="P489" t="n">
+        <v>0.156237215014678</v>
+      </c>
+      <c r="Q489" t="n">
+        <v>25.2769999999999</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="s">
+        <v>17</v>
+      </c>
+      <c r="B490" t="s">
+        <v>22</v>
+      </c>
+      <c r="C490" t="s">
+        <v>26</v>
+      </c>
+      <c r="D490" t="n">
+        <v>32</v>
+      </c>
+      <c r="E490" t="n">
+        <v>288</v>
+      </c>
+      <c r="F490" t="s">
+        <v>20</v>
+      </c>
+      <c r="G490" t="n">
+        <v>24279</v>
+      </c>
+      <c r="H490" t="s">
+        <v>21</v>
+      </c>
+      <c r="I490" t="n">
+        <v>45</v>
+      </c>
+      <c r="J490" t="n">
+        <v>10</v>
+      </c>
+      <c r="K490" t="n">
+        <v>0.462693864289207</v>
+      </c>
+      <c r="L490" t="n">
+        <v>0.373863636363636</v>
+      </c>
+      <c r="M490" t="n">
+        <v>1</v>
+      </c>
+      <c r="N490" t="n">
+        <v>0.29169061360224</v>
+      </c>
+      <c r="O490" t="n">
+        <v>0.223654226581976</v>
+      </c>
+      <c r="P490" t="n">
+        <v>0.155462925493093</v>
+      </c>
+      <c r="Q490" t="n">
+        <v>4.14999999999982</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="s">
+        <v>23</v>
+      </c>
+      <c r="B491" t="s">
+        <v>22</v>
+      </c>
+      <c r="C491" t="s">
+        <v>26</v>
+      </c>
+      <c r="D491" t="n">
+        <v>32</v>
+      </c>
+      <c r="E491" t="n">
+        <v>288</v>
+      </c>
+      <c r="F491" t="s">
+        <v>20</v>
+      </c>
+      <c r="G491" t="n">
+        <v>24279</v>
+      </c>
+      <c r="H491" t="s">
+        <v>21</v>
+      </c>
+      <c r="I491" t="n">
+        <v>45</v>
+      </c>
+      <c r="J491" t="n">
+        <v>10</v>
+      </c>
+      <c r="K491" t="n">
+        <v>0.465702142466229</v>
+      </c>
+      <c r="L491" t="n">
+        <v>0.375073313782991</v>
+      </c>
+      <c r="M491" t="n">
+        <v>1</v>
+      </c>
+      <c r="N491" t="n">
+        <v>0.291047750077458</v>
+      </c>
+      <c r="O491" t="n">
+        <v>0.223411015213496</v>
+      </c>
+      <c r="P491" t="n">
+        <v>0.159082612741221</v>
+      </c>
+      <c r="Q491" t="n">
+        <v>25.2830000000005</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="s">
+        <v>17</v>
+      </c>
+      <c r="B492" t="s">
+        <v>22</v>
+      </c>
+      <c r="C492" t="s">
+        <v>26</v>
+      </c>
+      <c r="D492" t="n">
+        <v>32</v>
+      </c>
+      <c r="E492" t="n">
+        <v>288</v>
+      </c>
+      <c r="F492" t="s">
+        <v>20</v>
+      </c>
+      <c r="G492" t="n">
+        <v>24279</v>
+      </c>
+      <c r="H492" t="s">
+        <v>21</v>
+      </c>
+      <c r="I492" t="n">
+        <v>46</v>
+      </c>
+      <c r="J492" t="n">
+        <v>10</v>
+      </c>
+      <c r="K492" t="n">
+        <v>0.432841707970611</v>
+      </c>
+      <c r="L492" t="n">
+        <v>0.337756598240469</v>
+      </c>
+      <c r="M492" t="n">
+        <v>1</v>
+      </c>
+      <c r="N492" t="n">
+        <v>0.294416176521577</v>
+      </c>
+      <c r="O492" t="n">
+        <v>0.22218818244207</v>
+      </c>
+      <c r="P492" t="n">
+        <v>0.157349409397745</v>
+      </c>
+      <c r="Q492" t="n">
+        <v>4.15499999999975</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="s">
+        <v>23</v>
+      </c>
+      <c r="B493" t="s">
+        <v>22</v>
+      </c>
+      <c r="C493" t="s">
+        <v>26</v>
+      </c>
+      <c r="D493" t="n">
+        <v>32</v>
+      </c>
+      <c r="E493" t="n">
+        <v>288</v>
+      </c>
+      <c r="F493" t="s">
+        <v>20</v>
+      </c>
+      <c r="G493" t="n">
+        <v>24279</v>
+      </c>
+      <c r="H493" t="s">
+        <v>21</v>
+      </c>
+      <c r="I493" t="n">
+        <v>46</v>
+      </c>
+      <c r="J493" t="n">
+        <v>10</v>
+      </c>
+      <c r="K493" t="n">
+        <v>0.430560559299349</v>
+      </c>
+      <c r="L493" t="n">
+        <v>0.346517595307918</v>
+      </c>
+      <c r="M493" t="n">
+        <v>1</v>
+      </c>
+      <c r="N493" t="n">
+        <v>0.29496335423043</v>
+      </c>
+      <c r="O493" t="n">
+        <v>0.223320802178786</v>
+      </c>
+      <c r="P493" t="n">
+        <v>0.154736900290347</v>
+      </c>
+      <c r="Q493" t="n">
+        <v>25.2530000000001</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="s">
+        <v>17</v>
+      </c>
+      <c r="B494" t="s">
+        <v>22</v>
+      </c>
+      <c r="C494" t="s">
+        <v>26</v>
+      </c>
+      <c r="D494" t="n">
+        <v>32</v>
+      </c>
+      <c r="E494" t="n">
+        <v>288</v>
+      </c>
+      <c r="F494" t="s">
+        <v>20</v>
+      </c>
+      <c r="G494" t="n">
+        <v>24279</v>
+      </c>
+      <c r="H494" t="s">
+        <v>21</v>
+      </c>
+      <c r="I494" t="n">
+        <v>47</v>
+      </c>
+      <c r="J494" t="n">
+        <v>10</v>
+      </c>
+      <c r="K494" t="n">
+        <v>0.475899441302976</v>
+      </c>
+      <c r="L494" t="n">
+        <v>0.376466275659824</v>
+      </c>
+      <c r="M494" t="n">
+        <v>1</v>
+      </c>
+      <c r="N494" t="n">
+        <v>0.288781656827268</v>
+      </c>
+      <c r="O494" t="n">
+        <v>0.221183764170094</v>
+      </c>
+      <c r="P494" t="n">
+        <v>0.156481211967834</v>
+      </c>
+      <c r="Q494" t="n">
+        <v>4.15399999999991</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="s">
+        <v>23</v>
+      </c>
+      <c r="B495" t="s">
+        <v>22</v>
+      </c>
+      <c r="C495" t="s">
+        <v>26</v>
+      </c>
+      <c r="D495" t="n">
+        <v>32</v>
+      </c>
+      <c r="E495" t="n">
+        <v>288</v>
+      </c>
+      <c r="F495" t="s">
+        <v>20</v>
+      </c>
+      <c r="G495" t="n">
+        <v>24279</v>
+      </c>
+      <c r="H495" t="s">
+        <v>21</v>
+      </c>
+      <c r="I495" t="n">
+        <v>47</v>
+      </c>
+      <c r="J495" t="n">
+        <v>10</v>
+      </c>
+      <c r="K495" t="n">
+        <v>0.470228725744956</v>
+      </c>
+      <c r="L495" t="n">
+        <v>0.373020527859238</v>
+      </c>
+      <c r="M495" t="n">
+        <v>1</v>
+      </c>
+      <c r="N495" t="n">
+        <v>0.289656897656346</v>
+      </c>
+      <c r="O495" t="n">
+        <v>0.221576523522102</v>
+      </c>
+      <c r="P495" t="n">
+        <v>0.150190055813262</v>
+      </c>
+      <c r="Q495" t="n">
+        <v>25.3089999999998</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="s">
+        <v>17</v>
+      </c>
+      <c r="B496" t="s">
+        <v>22</v>
+      </c>
+      <c r="C496" t="s">
+        <v>26</v>
+      </c>
+      <c r="D496" t="n">
+        <v>32</v>
+      </c>
+      <c r="E496" t="n">
+        <v>288</v>
+      </c>
+      <c r="F496" t="s">
+        <v>20</v>
+      </c>
+      <c r="G496" t="n">
+        <v>24279</v>
+      </c>
+      <c r="H496" t="s">
+        <v>21</v>
+      </c>
+      <c r="I496" t="n">
+        <v>48</v>
+      </c>
+      <c r="J496" t="n">
+        <v>10</v>
+      </c>
+      <c r="K496" t="n">
+        <v>0.433412300928136</v>
+      </c>
+      <c r="L496" t="n">
+        <v>0.341312316715543</v>
+      </c>
+      <c r="M496" t="n">
+        <v>1</v>
+      </c>
+      <c r="N496" t="n">
+        <v>0.288465355885313</v>
+      </c>
+      <c r="O496" t="n">
+        <v>0.221338616422069</v>
+      </c>
+      <c r="P496" t="n">
+        <v>0.157857517338593</v>
+      </c>
+      <c r="Q496" t="n">
+        <v>4.15799999999963</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="s">
+        <v>23</v>
+      </c>
+      <c r="B497" t="s">
+        <v>22</v>
+      </c>
+      <c r="C497" t="s">
+        <v>26</v>
+      </c>
+      <c r="D497" t="n">
+        <v>32</v>
+      </c>
+      <c r="E497" t="n">
+        <v>288</v>
+      </c>
+      <c r="F497" t="s">
+        <v>20</v>
+      </c>
+      <c r="G497" t="n">
+        <v>24279</v>
+      </c>
+      <c r="H497" t="s">
+        <v>21</v>
+      </c>
+      <c r="I497" t="n">
+        <v>48</v>
+      </c>
+      <c r="J497" t="n">
+        <v>10</v>
+      </c>
+      <c r="K497" t="n">
+        <v>0.435048131831678</v>
+      </c>
+      <c r="L497" t="n">
+        <v>0.335263929618768</v>
+      </c>
+      <c r="M497" t="n">
+        <v>1</v>
+      </c>
+      <c r="N497" t="n">
+        <v>0.288549097050163</v>
+      </c>
+      <c r="O497" t="n">
+        <v>0.222405157514102</v>
+      </c>
+      <c r="P497" t="n">
+        <v>0.158723038250114</v>
+      </c>
+      <c r="Q497" t="n">
+        <v>25.2700000000004</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="s">
+        <v>17</v>
+      </c>
+      <c r="B498" t="s">
+        <v>22</v>
+      </c>
+      <c r="C498" t="s">
+        <v>26</v>
+      </c>
+      <c r="D498" t="n">
+        <v>32</v>
+      </c>
+      <c r="E498" t="n">
+        <v>288</v>
+      </c>
+      <c r="F498" t="s">
+        <v>20</v>
+      </c>
+      <c r="G498" t="n">
+        <v>24279</v>
+      </c>
+      <c r="H498" t="s">
+        <v>21</v>
+      </c>
+      <c r="I498" t="n">
+        <v>49</v>
+      </c>
+      <c r="J498" t="n">
+        <v>10</v>
+      </c>
+      <c r="K498" t="n">
+        <v>0.48763391919083</v>
+      </c>
+      <c r="L498" t="n">
+        <v>0.42133431085044</v>
+      </c>
+      <c r="M498" t="n">
+        <v>1</v>
+      </c>
+      <c r="N498" t="n">
+        <v>0.287750520240567</v>
+      </c>
+      <c r="O498" t="n">
+        <v>0.217273667440348</v>
+      </c>
+      <c r="P498" t="n">
+        <v>0.165890879070134</v>
+      </c>
+      <c r="Q498" t="n">
+        <v>4.1559999999994</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="s">
+        <v>23</v>
+      </c>
+      <c r="B499" t="s">
+        <v>22</v>
+      </c>
+      <c r="C499" t="s">
+        <v>26</v>
+      </c>
+      <c r="D499" t="n">
+        <v>32</v>
+      </c>
+      <c r="E499" t="n">
+        <v>288</v>
+      </c>
+      <c r="F499" t="s">
+        <v>20</v>
+      </c>
+      <c r="G499" t="n">
+        <v>24279</v>
+      </c>
+      <c r="H499" t="s">
+        <v>21</v>
+      </c>
+      <c r="I499" t="n">
+        <v>49</v>
+      </c>
+      <c r="J499" t="n">
+        <v>10</v>
+      </c>
+      <c r="K499" t="n">
+        <v>0.487303852945376</v>
+      </c>
+      <c r="L499" t="n">
+        <v>0.420234604105572</v>
+      </c>
+      <c r="M499" t="n">
+        <v>1</v>
+      </c>
+      <c r="N499" t="n">
+        <v>0.288248175194847</v>
+      </c>
+      <c r="O499" t="n">
+        <v>0.218445588277126</v>
+      </c>
+      <c r="P499" t="n">
+        <v>0.163878915516612</v>
+      </c>
+      <c r="Q499" t="n">
+        <v>25.2779999999999</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="s">
+        <v>17</v>
+      </c>
+      <c r="B500" t="s">
+        <v>22</v>
+      </c>
+      <c r="C500" t="s">
+        <v>26</v>
+      </c>
+      <c r="D500" t="n">
+        <v>32</v>
+      </c>
+      <c r="E500" t="n">
+        <v>288</v>
+      </c>
+      <c r="F500" t="s">
+        <v>20</v>
+      </c>
+      <c r="G500" t="n">
+        <v>24279</v>
+      </c>
+      <c r="H500" t="s">
+        <v>21</v>
+      </c>
+      <c r="I500" t="n">
+        <v>50</v>
+      </c>
+      <c r="J500" t="n">
+        <v>10</v>
+      </c>
+      <c r="K500" t="n">
+        <v>0.429920510677723</v>
+      </c>
+      <c r="L500" t="n">
+        <v>0.377199413489736</v>
+      </c>
+      <c r="M500" t="n">
+        <v>1</v>
+      </c>
+      <c r="N500" t="n">
+        <v>0.294020066470802</v>
+      </c>
+      <c r="O500" t="n">
+        <v>0.223717159906104</v>
+      </c>
+      <c r="P500" t="n">
+        <v>0.141798825132335</v>
+      </c>
+      <c r="Q500" t="n">
+        <v>4.14099999999926</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="s">
+        <v>23</v>
+      </c>
+      <c r="B501" t="s">
+        <v>22</v>
+      </c>
+      <c r="C501" t="s">
+        <v>26</v>
+      </c>
+      <c r="D501" t="n">
+        <v>32</v>
+      </c>
+      <c r="E501" t="n">
+        <v>288</v>
+      </c>
+      <c r="F501" t="s">
+        <v>20</v>
+      </c>
+      <c r="G501" t="n">
+        <v>24279</v>
+      </c>
+      <c r="H501" t="s">
+        <v>21</v>
+      </c>
+      <c r="I501" t="n">
+        <v>50</v>
+      </c>
+      <c r="J501" t="n">
+        <v>10</v>
+      </c>
+      <c r="K501" t="n">
+        <v>0.430944610026078</v>
+      </c>
+      <c r="L501" t="n">
+        <v>0.377456011730205</v>
+      </c>
+      <c r="M501" t="n">
+        <v>1</v>
+      </c>
+      <c r="N501" t="n">
+        <v>0.293069511000261</v>
+      </c>
+      <c r="O501" t="n">
+        <v>0.222520775693235</v>
+      </c>
+      <c r="P501" t="n">
+        <v>0.147675668566503</v>
+      </c>
+      <c r="Q501" t="n">
+        <v>25.2420000000002</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="s">
+        <v>27</v>
+      </c>
+      <c r="B502" t="s">
+        <v>22</v>
+      </c>
+      <c r="C502" t="s">
+        <v>26</v>
+      </c>
+      <c r="D502" t="n">
+        <v>32</v>
+      </c>
+      <c r="E502" t="n">
+        <v>288</v>
+      </c>
+      <c r="F502" t="s">
+        <v>20</v>
+      </c>
+      <c r="G502" t="n">
+        <v>24279</v>
+      </c>
+      <c r="H502" t="s">
+        <v>21</v>
+      </c>
+      <c r="I502" t="n">
+        <v>1</v>
+      </c>
+      <c r="J502" t="n">
+        <v>10</v>
+      </c>
+      <c r="K502" t="n">
+        <v>0.426014774835327</v>
+      </c>
+      <c r="L502" t="n">
+        <v>0.366972140762463</v>
+      </c>
+      <c r="M502" t="n">
+        <v>1</v>
+      </c>
+      <c r="N502" t="n">
+        <v>0.293119383895166</v>
+      </c>
+      <c r="O502" t="n">
+        <v>0.223385805867549</v>
+      </c>
+      <c r="P502" t="n">
+        <v>0.108081506567707</v>
+      </c>
+      <c r="Q502" t="n">
+        <v>0.604999999999563</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="s">
+        <v>27</v>
+      </c>
+      <c r="B503" t="s">
+        <v>22</v>
+      </c>
+      <c r="C503" t="s">
+        <v>26</v>
+      </c>
+      <c r="D503" t="n">
+        <v>32</v>
+      </c>
+      <c r="E503" t="n">
+        <v>288</v>
+      </c>
+      <c r="F503" t="s">
+        <v>20</v>
+      </c>
+      <c r="G503" t="n">
+        <v>24279</v>
+      </c>
+      <c r="H503" t="s">
+        <v>21</v>
+      </c>
+      <c r="I503" t="n">
+        <v>2</v>
+      </c>
+      <c r="J503" t="n">
+        <v>10</v>
+      </c>
+      <c r="K503" t="n">
+        <v>0.449361175564336</v>
+      </c>
+      <c r="L503" t="n">
+        <v>0.395967741935484</v>
+      </c>
+      <c r="M503" t="n">
+        <v>1</v>
+      </c>
+      <c r="N503" t="n">
+        <v>0.287905128049087</v>
+      </c>
+      <c r="O503" t="n">
+        <v>0.220406040748003</v>
+      </c>
+      <c r="P503" t="n">
+        <v>0.142939344384432</v>
+      </c>
+      <c r="Q503" t="n">
+        <v>0.59900000000016</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="s">
+        <v>27</v>
+      </c>
+      <c r="B504" t="s">
+        <v>22</v>
+      </c>
+      <c r="C504" t="s">
+        <v>26</v>
+      </c>
+      <c r="D504" t="n">
+        <v>32</v>
+      </c>
+      <c r="E504" t="n">
+        <v>288</v>
+      </c>
+      <c r="F504" t="s">
+        <v>20</v>
+      </c>
+      <c r="G504" t="n">
+        <v>24279</v>
+      </c>
+      <c r="H504" t="s">
+        <v>21</v>
+      </c>
+      <c r="I504" t="n">
+        <v>3</v>
+      </c>
+      <c r="J504" t="n">
+        <v>10</v>
+      </c>
+      <c r="K504" t="n">
+        <v>0.446135731603228</v>
+      </c>
+      <c r="L504" t="n">
+        <v>0.360593841642229</v>
+      </c>
+      <c r="M504" t="n">
+        <v>1</v>
+      </c>
+      <c r="N504" t="n">
+        <v>0.28906331898082</v>
+      </c>
+      <c r="O504" t="n">
+        <v>0.220128805021919</v>
+      </c>
+      <c r="P504" t="n">
+        <v>0.16910409686749</v>
+      </c>
+      <c r="Q504" t="n">
+        <v>0.594000000000233</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="s">
+        <v>27</v>
+      </c>
+      <c r="B505" t="s">
+        <v>22</v>
+      </c>
+      <c r="C505" t="s">
+        <v>26</v>
+      </c>
+      <c r="D505" t="n">
+        <v>32</v>
+      </c>
+      <c r="E505" t="n">
+        <v>288</v>
+      </c>
+      <c r="F505" t="s">
+        <v>20</v>
+      </c>
+      <c r="G505" t="n">
+        <v>24279</v>
+      </c>
+      <c r="H505" t="s">
+        <v>21</v>
+      </c>
+      <c r="I505" t="n">
+        <v>4</v>
+      </c>
+      <c r="J505" t="n">
+        <v>10</v>
+      </c>
+      <c r="K505" t="n">
+        <v>0.459779817901003</v>
+      </c>
+      <c r="L505" t="n">
+        <v>0.351063049853372</v>
+      </c>
+      <c r="M505" t="n">
+        <v>1</v>
+      </c>
+      <c r="N505" t="n">
+        <v>0.290093638751427</v>
+      </c>
+      <c r="O505" t="n">
+        <v>0.221188915052932</v>
+      </c>
+      <c r="P505" t="n">
+        <v>0.186171817044138</v>
+      </c>
+      <c r="Q505" t="n">
+        <v>0.593999999999869</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="s">
+        <v>27</v>
+      </c>
+      <c r="B506" t="s">
+        <v>22</v>
+      </c>
+      <c r="C506" t="s">
+        <v>26</v>
+      </c>
+      <c r="D506" t="n">
+        <v>32</v>
+      </c>
+      <c r="E506" t="n">
+        <v>288</v>
+      </c>
+      <c r="F506" t="s">
+        <v>20</v>
+      </c>
+      <c r="G506" t="n">
+        <v>24279</v>
+      </c>
+      <c r="H506" t="s">
+        <v>21</v>
+      </c>
+      <c r="I506" t="n">
+        <v>5</v>
+      </c>
+      <c r="J506" t="n">
+        <v>10</v>
+      </c>
+      <c r="K506" t="n">
+        <v>0.462734984098959</v>
+      </c>
+      <c r="L506" t="n">
+        <v>0.405205278592375</v>
+      </c>
+      <c r="M506" t="n">
+        <v>1</v>
+      </c>
+      <c r="N506" t="n">
+        <v>0.288224192987562</v>
+      </c>
+      <c r="O506" t="n">
+        <v>0.21984516897929</v>
+      </c>
+      <c r="P506" t="n">
+        <v>0.202823542164366</v>
+      </c>
+      <c r="Q506" t="n">
+        <v>0.60199999999968</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="s">
+        <v>27</v>
+      </c>
+      <c r="B507" t="s">
+        <v>22</v>
+      </c>
+      <c r="C507" t="s">
+        <v>26</v>
+      </c>
+      <c r="D507" t="n">
+        <v>32</v>
+      </c>
+      <c r="E507" t="n">
+        <v>288</v>
+      </c>
+      <c r="F507" t="s">
+        <v>20</v>
+      </c>
+      <c r="G507" t="n">
+        <v>24279</v>
+      </c>
+      <c r="H507" t="s">
+        <v>21</v>
+      </c>
+      <c r="I507" t="n">
+        <v>6</v>
+      </c>
+      <c r="J507" t="n">
+        <v>10</v>
+      </c>
+      <c r="K507" t="n">
+        <v>0.420867345126913</v>
+      </c>
+      <c r="L507" t="n">
+        <v>0.345894428152493</v>
+      </c>
+      <c r="M507" t="n">
+        <v>1</v>
+      </c>
+      <c r="N507" t="n">
+        <v>0.293773036890802</v>
+      </c>
+      <c r="O507" t="n">
+        <v>0.223537166573893</v>
+      </c>
+      <c r="P507" t="n">
+        <v>0.120887651672606</v>
+      </c>
+      <c r="Q507" t="n">
+        <v>0.606000000000131</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="s">
+        <v>27</v>
+      </c>
+      <c r="B508" t="s">
+        <v>22</v>
+      </c>
+      <c r="C508" t="s">
+        <v>26</v>
+      </c>
+      <c r="D508" t="n">
+        <v>32</v>
+      </c>
+      <c r="E508" t="n">
+        <v>288</v>
+      </c>
+      <c r="F508" t="s">
+        <v>20</v>
+      </c>
+      <c r="G508" t="n">
+        <v>24279</v>
+      </c>
+      <c r="H508" t="s">
+        <v>21</v>
+      </c>
+      <c r="I508" t="n">
+        <v>7</v>
+      </c>
+      <c r="J508" t="n">
+        <v>10</v>
+      </c>
+      <c r="K508" t="n">
+        <v>0.424177300624964</v>
+      </c>
+      <c r="L508" t="n">
+        <v>0.361730205278592</v>
+      </c>
+      <c r="M508" t="n">
+        <v>1</v>
+      </c>
+      <c r="N508" t="n">
+        <v>0.288503636505257</v>
+      </c>
+      <c r="O508" t="n">
+        <v>0.220251051025757</v>
+      </c>
+      <c r="P508" t="n">
+        <v>0.177513532550438</v>
+      </c>
+      <c r="Q508" t="n">
+        <v>0.601000000000204</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="s">
+        <v>27</v>
+      </c>
+      <c r="B509" t="s">
+        <v>22</v>
+      </c>
+      <c r="C509" t="s">
+        <v>26</v>
+      </c>
+      <c r="D509" t="n">
+        <v>32</v>
+      </c>
+      <c r="E509" t="n">
+        <v>288</v>
+      </c>
+      <c r="F509" t="s">
+        <v>20</v>
+      </c>
+      <c r="G509" t="n">
+        <v>24279</v>
+      </c>
+      <c r="H509" t="s">
+        <v>21</v>
+      </c>
+      <c r="I509" t="n">
+        <v>8</v>
+      </c>
+      <c r="J509" t="n">
+        <v>10</v>
+      </c>
+      <c r="K509" t="n">
+        <v>0.458643299242137</v>
+      </c>
+      <c r="L509" t="n">
+        <v>0.377712609970674</v>
+      </c>
+      <c r="M509" t="n">
+        <v>1</v>
+      </c>
+      <c r="N509" t="n">
+        <v>0.287970670841624</v>
+      </c>
+      <c r="O509" t="n">
+        <v>0.218485690384018</v>
+      </c>
+      <c r="P509" t="n">
+        <v>0.179494990613835</v>
+      </c>
+      <c r="Q509" t="n">
+        <v>0.59700000000048</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="s">
+        <v>27</v>
+      </c>
+      <c r="B510" t="s">
+        <v>22</v>
+      </c>
+      <c r="C510" t="s">
+        <v>26</v>
+      </c>
+      <c r="D510" t="n">
+        <v>32</v>
+      </c>
+      <c r="E510" t="n">
+        <v>288</v>
+      </c>
+      <c r="F510" t="s">
+        <v>20</v>
+      </c>
+      <c r="G510" t="n">
+        <v>24279</v>
+      </c>
+      <c r="H510" t="s">
+        <v>21</v>
+      </c>
+      <c r="I510" t="n">
+        <v>9</v>
+      </c>
+      <c r="J510" t="n">
+        <v>10</v>
+      </c>
+      <c r="K510" t="n">
+        <v>0.46104196367396</v>
+      </c>
+      <c r="L510" t="n">
+        <v>0.38475073313783</v>
+      </c>
+      <c r="M510" t="n">
+        <v>1</v>
+      </c>
+      <c r="N510" t="n">
+        <v>0.288496814429337</v>
+      </c>
+      <c r="O510" t="n">
+        <v>0.220884162970266</v>
+      </c>
+      <c r="P510" t="n">
+        <v>0.166780950073433</v>
+      </c>
+      <c r="Q510" t="n">
+        <v>0.604000000000451</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="s">
+        <v>27</v>
+      </c>
+      <c r="B511" t="s">
+        <v>22</v>
+      </c>
+      <c r="C511" t="s">
+        <v>26</v>
+      </c>
+      <c r="D511" t="n">
+        <v>32</v>
+      </c>
+      <c r="E511" t="n">
+        <v>288</v>
+      </c>
+      <c r="F511" t="s">
+        <v>20</v>
+      </c>
+      <c r="G511" t="n">
+        <v>24279</v>
+      </c>
+      <c r="H511" t="s">
+        <v>21</v>
+      </c>
+      <c r="I511" t="n">
+        <v>10</v>
+      </c>
+      <c r="J511" t="n">
+        <v>10</v>
+      </c>
+      <c r="K511" t="n">
+        <v>0.450432746128954</v>
+      </c>
+      <c r="L511" t="n">
+        <v>0.356378299120235</v>
+      </c>
+      <c r="M511" t="n">
+        <v>1</v>
+      </c>
+      <c r="N511" t="n">
+        <v>0.290473026760733</v>
+      </c>
+      <c r="O511" t="n">
+        <v>0.221559535464223</v>
+      </c>
+      <c r="P511" t="n">
+        <v>0.200965658722184</v>
+      </c>
+      <c r="Q511" t="n">
+        <v>0.592000000000189</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="s">
+        <v>27</v>
+      </c>
+      <c r="B512" t="s">
+        <v>22</v>
+      </c>
+      <c r="C512" t="s">
+        <v>26</v>
+      </c>
+      <c r="D512" t="n">
+        <v>32</v>
+      </c>
+      <c r="E512" t="n">
+        <v>288</v>
+      </c>
+      <c r="F512" t="s">
+        <v>20</v>
+      </c>
+      <c r="G512" t="n">
+        <v>24279</v>
+      </c>
+      <c r="H512" t="s">
+        <v>21</v>
+      </c>
+      <c r="I512" t="n">
+        <v>11</v>
+      </c>
+      <c r="J512" t="n">
+        <v>10</v>
+      </c>
+      <c r="K512" t="n">
+        <v>0.450818260567721</v>
+      </c>
+      <c r="L512" t="n">
+        <v>0.399010263929619</v>
+      </c>
+      <c r="M512" t="n">
+        <v>1</v>
+      </c>
+      <c r="N512" t="n">
+        <v>0.291698762977937</v>
+      </c>
+      <c r="O512" t="n">
+        <v>0.220172212967878</v>
+      </c>
+      <c r="P512" t="n">
+        <v>0.103994192651506</v>
+      </c>
+      <c r="Q512" t="n">
+        <v>0.594999999999709</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="s">
+        <v>27</v>
+      </c>
+      <c r="B513" t="s">
+        <v>22</v>
+      </c>
+      <c r="C513" t="s">
+        <v>26</v>
+      </c>
+      <c r="D513" t="n">
+        <v>32</v>
+      </c>
+      <c r="E513" t="n">
+        <v>288</v>
+      </c>
+      <c r="F513" t="s">
+        <v>20</v>
+      </c>
+      <c r="G513" t="n">
+        <v>24279</v>
+      </c>
+      <c r="H513" t="s">
+        <v>21</v>
+      </c>
+      <c r="I513" t="n">
+        <v>12</v>
+      </c>
+      <c r="J513" t="n">
+        <v>10</v>
+      </c>
+      <c r="K513" t="n">
+        <v>0.460637159287967</v>
+      </c>
+      <c r="L513" t="n">
+        <v>0.350183284457478</v>
+      </c>
+      <c r="M513" t="n">
+        <v>1</v>
+      </c>
+      <c r="N513" t="n">
+        <v>0.294306600874218</v>
+      </c>
+      <c r="O513" t="n">
+        <v>0.223810928477675</v>
+      </c>
+      <c r="P513" t="n">
+        <v>0.169135021673545</v>
+      </c>
+      <c r="Q513" t="n">
+        <v>0.598999999999069</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="s">
+        <v>27</v>
+      </c>
+      <c r="B514" t="s">
+        <v>22</v>
+      </c>
+      <c r="C514" t="s">
+        <v>26</v>
+      </c>
+      <c r="D514" t="n">
+        <v>32</v>
+      </c>
+      <c r="E514" t="n">
+        <v>288</v>
+      </c>
+      <c r="F514" t="s">
+        <v>20</v>
+      </c>
+      <c r="G514" t="n">
+        <v>24279</v>
+      </c>
+      <c r="H514" t="s">
+        <v>21</v>
+      </c>
+      <c r="I514" t="n">
+        <v>13</v>
+      </c>
+      <c r="J514" t="n">
+        <v>10</v>
+      </c>
+      <c r="K514" t="n">
+        <v>0.430089323880454</v>
+      </c>
+      <c r="L514" t="n">
+        <v>0.325843108504399</v>
+      </c>
+      <c r="M514" t="n">
+        <v>1</v>
+      </c>
+      <c r="N514" t="n">
+        <v>0.293092807596041</v>
+      </c>
+      <c r="O514" t="n">
+        <v>0.223719196355121</v>
+      </c>
+      <c r="P514" t="n">
+        <v>0.13825141458455</v>
+      </c>
+      <c r="Q514" t="n">
+        <v>0.600000000000364</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="s">
+        <v>27</v>
+      </c>
+      <c r="B515" t="s">
+        <v>22</v>
+      </c>
+      <c r="C515" t="s">
+        <v>26</v>
+      </c>
+      <c r="D515" t="n">
+        <v>32</v>
+      </c>
+      <c r="E515" t="n">
+        <v>288</v>
+      </c>
+      <c r="F515" t="s">
+        <v>20</v>
+      </c>
+      <c r="G515" t="n">
+        <v>24279</v>
+      </c>
+      <c r="H515" t="s">
+        <v>21</v>
+      </c>
+      <c r="I515" t="n">
+        <v>14</v>
+      </c>
+      <c r="J515" t="n">
+        <v>10</v>
+      </c>
+      <c r="K515" t="n">
+        <v>0.4592948299179</v>
+      </c>
+      <c r="L515" t="n">
+        <v>0.395051319648094</v>
+      </c>
+      <c r="M515" t="n">
+        <v>1</v>
+      </c>
+      <c r="N515" t="n">
+        <v>0.289733833677173</v>
+      </c>
+      <c r="O515" t="n">
+        <v>0.221626237520564</v>
+      </c>
+      <c r="P515" t="n">
+        <v>0.155808345337645</v>
+      </c>
+      <c r="Q515" t="n">
+        <v>0.60399999999936</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="s">
+        <v>27</v>
+      </c>
+      <c r="B516" t="s">
+        <v>22</v>
+      </c>
+      <c r="C516" t="s">
+        <v>26</v>
+      </c>
+      <c r="D516" t="n">
+        <v>32</v>
+      </c>
+      <c r="E516" t="n">
+        <v>288</v>
+      </c>
+      <c r="F516" t="s">
+        <v>20</v>
+      </c>
+      <c r="G516" t="n">
+        <v>24279</v>
+      </c>
+      <c r="H516" t="s">
+        <v>21</v>
+      </c>
+      <c r="I516" t="n">
+        <v>15</v>
+      </c>
+      <c r="J516" t="n">
+        <v>10</v>
+      </c>
+      <c r="K516" t="n">
+        <v>0.442994098822405</v>
+      </c>
+      <c r="L516" t="n">
+        <v>0.382368035190616</v>
+      </c>
+      <c r="M516" t="n">
+        <v>1</v>
+      </c>
+      <c r="N516" t="n">
+        <v>0.288504905345391</v>
+      </c>
+      <c r="O516" t="n">
+        <v>0.221353620702382</v>
+      </c>
+      <c r="P516" t="n">
+        <v>0.140512709685701</v>
+      </c>
+      <c r="Q516" t="n">
+        <v>0.602999999999884</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="s">
+        <v>27</v>
+      </c>
+      <c r="B517" t="s">
+        <v>22</v>
+      </c>
+      <c r="C517" t="s">
+        <v>26</v>
+      </c>
+      <c r="D517" t="n">
+        <v>32</v>
+      </c>
+      <c r="E517" t="n">
+        <v>288</v>
+      </c>
+      <c r="F517" t="s">
+        <v>20</v>
+      </c>
+      <c r="G517" t="n">
+        <v>24279</v>
+      </c>
+      <c r="H517" t="s">
+        <v>21</v>
+      </c>
+      <c r="I517" t="n">
+        <v>16</v>
+      </c>
+      <c r="J517" t="n">
+        <v>10</v>
+      </c>
+      <c r="K517" t="n">
+        <v>0.445506358368614</v>
+      </c>
+      <c r="L517" t="n">
+        <v>0.365505865102639</v>
+      </c>
+      <c r="M517" t="n">
+        <v>1</v>
+      </c>
+      <c r="N517" t="n">
+        <v>0.296067024031017</v>
+      </c>
+      <c r="O517" t="n">
+        <v>0.225152306589559</v>
+      </c>
+      <c r="P517" t="n">
+        <v>0.122890591829009</v>
+      </c>
+      <c r="Q517" t="n">
+        <v>0.60199999999968</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="s">
+        <v>27</v>
+      </c>
+      <c r="B518" t="s">
+        <v>22</v>
+      </c>
+      <c r="C518" t="s">
+        <v>26</v>
+      </c>
+      <c r="D518" t="n">
+        <v>32</v>
+      </c>
+      <c r="E518" t="n">
+        <v>288</v>
+      </c>
+      <c r="F518" t="s">
+        <v>20</v>
+      </c>
+      <c r="G518" t="n">
+        <v>24279</v>
+      </c>
+      <c r="H518" t="s">
+        <v>21</v>
+      </c>
+      <c r="I518" t="n">
+        <v>17</v>
+      </c>
+      <c r="J518" t="n">
+        <v>10</v>
+      </c>
+      <c r="K518" t="n">
+        <v>0.44097562295702</v>
+      </c>
+      <c r="L518" t="n">
+        <v>0.339149560117302</v>
+      </c>
+      <c r="M518" t="n">
+        <v>1</v>
+      </c>
+      <c r="N518" t="n">
+        <v>0.29297326688523</v>
+      </c>
+      <c r="O518" t="n">
+        <v>0.223596320064565</v>
+      </c>
+      <c r="P518" t="n">
+        <v>0.139539090261794</v>
+      </c>
+      <c r="Q518" t="n">
+        <v>0.595999999999913</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="s">
+        <v>27</v>
+      </c>
+      <c r="B519" t="s">
+        <v>22</v>
+      </c>
+      <c r="C519" t="s">
+        <v>26</v>
+      </c>
+      <c r="D519" t="n">
+        <v>32</v>
+      </c>
+      <c r="E519" t="n">
+        <v>288</v>
+      </c>
+      <c r="F519" t="s">
+        <v>20</v>
+      </c>
+      <c r="G519" t="n">
+        <v>24279</v>
+      </c>
+      <c r="H519" t="s">
+        <v>21</v>
+      </c>
+      <c r="I519" t="n">
+        <v>18</v>
+      </c>
+      <c r="J519" t="n">
+        <v>10</v>
+      </c>
+      <c r="K519" t="n">
+        <v>0.452020692026061</v>
+      </c>
+      <c r="L519" t="n">
+        <v>0.380901759530792</v>
+      </c>
+      <c r="M519" t="n">
+        <v>1</v>
+      </c>
+      <c r="N519" t="n">
+        <v>0.287577346750632</v>
+      </c>
+      <c r="O519" t="n">
+        <v>0.221314257040808</v>
+      </c>
+      <c r="P519" t="n">
+        <v>0.162177573734027</v>
+      </c>
+      <c r="Q519" t="n">
+        <v>0.599999999999636</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="s">
+        <v>27</v>
+      </c>
+      <c r="B520" t="s">
+        <v>22</v>
+      </c>
+      <c r="C520" t="s">
+        <v>26</v>
+      </c>
+      <c r="D520" t="n">
+        <v>32</v>
+      </c>
+      <c r="E520" t="n">
+        <v>288</v>
+      </c>
+      <c r="F520" t="s">
+        <v>20</v>
+      </c>
+      <c r="G520" t="n">
+        <v>24279</v>
+      </c>
+      <c r="H520" t="s">
+        <v>21</v>
+      </c>
+      <c r="I520" t="n">
+        <v>19</v>
+      </c>
+      <c r="J520" t="n">
+        <v>10</v>
+      </c>
+      <c r="K520" t="n">
+        <v>0.445849037992327</v>
+      </c>
+      <c r="L520" t="n">
+        <v>0.367265395894428</v>
+      </c>
+      <c r="M520" t="n">
+        <v>1</v>
+      </c>
+      <c r="N520" t="n">
+        <v>0.290858716427867</v>
+      </c>
+      <c r="O520" t="n">
+        <v>0.22237880040638</v>
+      </c>
+      <c r="P520" t="n">
+        <v>0.1509495952057</v>
+      </c>
+      <c r="Q520" t="n">
+        <v>0.607000000000335</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="s">
+        <v>27</v>
+      </c>
+      <c r="B521" t="s">
+        <v>22</v>
+      </c>
+      <c r="C521" t="s">
+        <v>26</v>
+      </c>
+      <c r="D521" t="n">
+        <v>32</v>
+      </c>
+      <c r="E521" t="n">
+        <v>288</v>
+      </c>
+      <c r="F521" t="s">
+        <v>20</v>
+      </c>
+      <c r="G521" t="n">
+        <v>24279</v>
+      </c>
+      <c r="H521" t="s">
+        <v>21</v>
+      </c>
+      <c r="I521" t="n">
+        <v>20</v>
+      </c>
+      <c r="J521" t="n">
+        <v>10</v>
+      </c>
+      <c r="K521" t="n">
+        <v>0.43941540008027</v>
+      </c>
+      <c r="L521" t="n">
+        <v>0.40458211143695</v>
+      </c>
+      <c r="M521" t="n">
+        <v>1</v>
+      </c>
+      <c r="N521" t="n">
+        <v>0.289509158687204</v>
+      </c>
+      <c r="O521" t="n">
+        <v>0.220350308014013</v>
+      </c>
+      <c r="P521" t="n">
+        <v>0.153943182320922</v>
+      </c>
+      <c r="Q521" t="n">
+        <v>0.59700000000048</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="s">
+        <v>27</v>
+      </c>
+      <c r="B522" t="s">
+        <v>22</v>
+      </c>
+      <c r="C522" t="s">
+        <v>26</v>
+      </c>
+      <c r="D522" t="n">
+        <v>32</v>
+      </c>
+      <c r="E522" t="n">
+        <v>288</v>
+      </c>
+      <c r="F522" t="s">
+        <v>20</v>
+      </c>
+      <c r="G522" t="n">
+        <v>24279</v>
+      </c>
+      <c r="H522" t="s">
+        <v>21</v>
+      </c>
+      <c r="I522" t="n">
+        <v>21</v>
+      </c>
+      <c r="J522" t="n">
+        <v>10</v>
+      </c>
+      <c r="K522" t="n">
+        <v>0.454340006502771</v>
+      </c>
+      <c r="L522" t="n">
+        <v>0.376136363636364</v>
+      </c>
+      <c r="M522" t="n">
+        <v>1</v>
+      </c>
+      <c r="N522" t="n">
+        <v>0.286943366345281</v>
+      </c>
+      <c r="O522" t="n">
+        <v>0.218906272877346</v>
+      </c>
+      <c r="P522" t="n">
+        <v>0.191124207172248</v>
+      </c>
+      <c r="Q522" t="n">
+        <v>0.607000000000699</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="s">
+        <v>27</v>
+      </c>
+      <c r="B523" t="s">
+        <v>22</v>
+      </c>
+      <c r="C523" t="s">
+        <v>26</v>
+      </c>
+      <c r="D523" t="n">
+        <v>32</v>
+      </c>
+      <c r="E523" t="n">
+        <v>288</v>
+      </c>
+      <c r="F523" t="s">
+        <v>20</v>
+      </c>
+      <c r="G523" t="n">
+        <v>24279</v>
+      </c>
+      <c r="H523" t="s">
+        <v>21</v>
+      </c>
+      <c r="I523" t="n">
+        <v>22</v>
+      </c>
+      <c r="J523" t="n">
+        <v>10</v>
+      </c>
+      <c r="K523" t="n">
+        <v>0.454958755666953</v>
+      </c>
+      <c r="L523" t="n">
+        <v>0.377346041055718</v>
+      </c>
+      <c r="M523" t="n">
+        <v>1</v>
+      </c>
+      <c r="N523" t="n">
+        <v>0.286603776363949</v>
+      </c>
+      <c r="O523" t="n">
+        <v>0.219367372156929</v>
+      </c>
+      <c r="P523" t="n">
+        <v>0.170855097120364</v>
+      </c>
+      <c r="Q523" t="n">
+        <v>0.602999999999884</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="s">
+        <v>27</v>
+      </c>
+      <c r="B524" t="s">
+        <v>22</v>
+      </c>
+      <c r="C524" t="s">
+        <v>26</v>
+      </c>
+      <c r="D524" t="n">
+        <v>32</v>
+      </c>
+      <c r="E524" t="n">
+        <v>288</v>
+      </c>
+      <c r="F524" t="s">
+        <v>20</v>
+      </c>
+      <c r="G524" t="n">
+        <v>24279</v>
+      </c>
+      <c r="H524" t="s">
+        <v>21</v>
+      </c>
+      <c r="I524" t="n">
+        <v>23</v>
+      </c>
+      <c r="J524" t="n">
+        <v>10</v>
+      </c>
+      <c r="K524" t="n">
+        <v>0.440648623463248</v>
+      </c>
+      <c r="L524" t="n">
+        <v>0.396737536656891</v>
+      </c>
+      <c r="M524" t="n">
+        <v>1</v>
+      </c>
+      <c r="N524" t="n">
+        <v>0.28960128920502</v>
+      </c>
+      <c r="O524" t="n">
+        <v>0.220752540380916</v>
+      </c>
+      <c r="P524" t="n">
+        <v>0.149888933700766</v>
+      </c>
+      <c r="Q524" t="n">
+        <v>0.601999999999316</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="s">
+        <v>27</v>
+      </c>
+      <c r="B525" t="s">
+        <v>22</v>
+      </c>
+      <c r="C525" t="s">
+        <v>26</v>
+      </c>
+      <c r="D525" t="n">
+        <v>32</v>
+      </c>
+      <c r="E525" t="n">
+        <v>288</v>
+      </c>
+      <c r="F525" t="s">
+        <v>20</v>
+      </c>
+      <c r="G525" t="n">
+        <v>24279</v>
+      </c>
+      <c r="H525" t="s">
+        <v>21</v>
+      </c>
+      <c r="I525" t="n">
+        <v>24</v>
+      </c>
+      <c r="J525" t="n">
+        <v>10</v>
+      </c>
+      <c r="K525" t="n">
+        <v>0.452244724298155</v>
+      </c>
+      <c r="L525" t="n">
+        <v>0.387683284457478</v>
+      </c>
+      <c r="M525" t="n">
+        <v>1</v>
+      </c>
+      <c r="N525" t="n">
+        <v>0.289710079913585</v>
+      </c>
+      <c r="O525" t="n">
+        <v>0.22188239544625</v>
+      </c>
+      <c r="P525" t="n">
+        <v>0.104648525637519</v>
+      </c>
+      <c r="Q525" t="n">
+        <v>0.605000000000291</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="s">
+        <v>27</v>
+      </c>
+      <c r="B526" t="s">
+        <v>22</v>
+      </c>
+      <c r="C526" t="s">
+        <v>26</v>
+      </c>
+      <c r="D526" t="n">
+        <v>32</v>
+      </c>
+      <c r="E526" t="n">
+        <v>288</v>
+      </c>
+      <c r="F526" t="s">
+        <v>20</v>
+      </c>
+      <c r="G526" t="n">
+        <v>24279</v>
+      </c>
+      <c r="H526" t="s">
+        <v>21</v>
+      </c>
+      <c r="I526" t="n">
+        <v>25</v>
+      </c>
+      <c r="J526" t="n">
+        <v>10</v>
+      </c>
+      <c r="K526" t="n">
+        <v>0.462565214929262</v>
+      </c>
+      <c r="L526" t="n">
+        <v>0.390322580645161</v>
+      </c>
+      <c r="M526" t="n">
+        <v>1</v>
+      </c>
+      <c r="N526" t="n">
+        <v>0.291098966895004</v>
+      </c>
+      <c r="O526" t="n">
+        <v>0.221216561493814</v>
+      </c>
+      <c r="P526" t="n">
+        <v>0.192820972381348</v>
+      </c>
+      <c r="Q526" t="n">
+        <v>0.600000000000364</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="s">
+        <v>27</v>
+      </c>
+      <c r="B527" t="s">
+        <v>22</v>
+      </c>
+      <c r="C527" t="s">
+        <v>26</v>
+      </c>
+      <c r="D527" t="n">
+        <v>32</v>
+      </c>
+      <c r="E527" t="n">
+        <v>288</v>
+      </c>
+      <c r="F527" t="s">
+        <v>20</v>
+      </c>
+      <c r="G527" t="n">
+        <v>24279</v>
+      </c>
+      <c r="H527" t="s">
+        <v>21</v>
+      </c>
+      <c r="I527" t="n">
+        <v>26</v>
+      </c>
+      <c r="J527" t="n">
+        <v>10</v>
+      </c>
+      <c r="K527" t="n">
+        <v>0.446454283029817</v>
+      </c>
+      <c r="L527" t="n">
+        <v>0.373093841642229</v>
+      </c>
+      <c r="M527" t="n">
+        <v>1</v>
+      </c>
+      <c r="N527" t="n">
+        <v>0.289913477201619</v>
+      </c>
+      <c r="O527" t="n">
+        <v>0.223766861231092</v>
+      </c>
+      <c r="P527" t="n">
+        <v>0.135360354022322</v>
+      </c>
+      <c r="Q527" t="n">
+        <v>0.593999999999869</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="s">
+        <v>27</v>
+      </c>
+      <c r="B528" t="s">
+        <v>22</v>
+      </c>
+      <c r="C528" t="s">
+        <v>26</v>
+      </c>
+      <c r="D528" t="n">
+        <v>32</v>
+      </c>
+      <c r="E528" t="n">
+        <v>288</v>
+      </c>
+      <c r="F528" t="s">
+        <v>20</v>
+      </c>
+      <c r="G528" t="n">
+        <v>24279</v>
+      </c>
+      <c r="H528" t="s">
+        <v>21</v>
+      </c>
+      <c r="I528" t="n">
+        <v>27</v>
+      </c>
+      <c r="J528" t="n">
+        <v>10</v>
+      </c>
+      <c r="K528" t="n">
+        <v>0.496927708580178</v>
+      </c>
+      <c r="L528" t="n">
+        <v>0.425953079178886</v>
+      </c>
+      <c r="M528" t="n">
+        <v>1</v>
+      </c>
+      <c r="N528" t="n">
+        <v>0.283424818251554</v>
+      </c>
+      <c r="O528" t="n">
+        <v>0.217272856314544</v>
+      </c>
+      <c r="P528" t="n">
+        <v>0.207952241966092</v>
+      </c>
+      <c r="Q528" t="n">
+        <v>0.606000000000131</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="s">
+        <v>27</v>
+      </c>
+      <c r="B529" t="s">
+        <v>22</v>
+      </c>
+      <c r="C529" t="s">
+        <v>26</v>
+      </c>
+      <c r="D529" t="n">
+        <v>32</v>
+      </c>
+      <c r="E529" t="n">
+        <v>288</v>
+      </c>
+      <c r="F529" t="s">
+        <v>20</v>
+      </c>
+      <c r="G529" t="n">
+        <v>24279</v>
+      </c>
+      <c r="H529" t="s">
+        <v>21</v>
+      </c>
+      <c r="I529" t="n">
+        <v>28</v>
+      </c>
+      <c r="J529" t="n">
+        <v>10</v>
+      </c>
+      <c r="K529" t="n">
+        <v>0.438784946336434</v>
+      </c>
+      <c r="L529" t="n">
+        <v>0.359054252199414</v>
+      </c>
+      <c r="M529" t="n">
+        <v>1</v>
+      </c>
+      <c r="N529" t="n">
+        <v>0.291794133037917</v>
+      </c>
+      <c r="O529" t="n">
+        <v>0.220897049950195</v>
+      </c>
+      <c r="P529" t="n">
+        <v>0.174933571155708</v>
+      </c>
+      <c r="Q529" t="n">
+        <v>0.596999999999753</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="s">
+        <v>27</v>
+      </c>
+      <c r="B530" t="s">
+        <v>22</v>
+      </c>
+      <c r="C530" t="s">
+        <v>26</v>
+      </c>
+      <c r="D530" t="n">
+        <v>32</v>
+      </c>
+      <c r="E530" t="n">
+        <v>288</v>
+      </c>
+      <c r="F530" t="s">
+        <v>20</v>
+      </c>
+      <c r="G530" t="n">
+        <v>24279</v>
+      </c>
+      <c r="H530" t="s">
+        <v>21</v>
+      </c>
+      <c r="I530" t="n">
+        <v>29</v>
+      </c>
+      <c r="J530" t="n">
+        <v>10</v>
+      </c>
+      <c r="K530" t="n">
+        <v>0.43350908492523</v>
+      </c>
+      <c r="L530" t="n">
+        <v>0.338856304985337</v>
+      </c>
+      <c r="M530" t="n">
+        <v>1</v>
+      </c>
+      <c r="N530" t="n">
+        <v>0.29025928648354</v>
+      </c>
+      <c r="O530" t="n">
+        <v>0.223169535685135</v>
+      </c>
+      <c r="P530" t="n">
+        <v>0.126044930595404</v>
+      </c>
+      <c r="Q530" t="n">
+        <v>0.602000000000044</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="s">
+        <v>27</v>
+      </c>
+      <c r="B531" t="s">
+        <v>22</v>
+      </c>
+      <c r="C531" t="s">
+        <v>26</v>
+      </c>
+      <c r="D531" t="n">
+        <v>32</v>
+      </c>
+      <c r="E531" t="n">
+        <v>288</v>
+      </c>
+      <c r="F531" t="s">
+        <v>20</v>
+      </c>
+      <c r="G531" t="n">
+        <v>24279</v>
+      </c>
+      <c r="H531" t="s">
+        <v>21</v>
+      </c>
+      <c r="I531" t="n">
+        <v>30</v>
+      </c>
+      <c r="J531" t="n">
+        <v>10</v>
+      </c>
+      <c r="K531" t="n">
+        <v>0.487422092364874</v>
+      </c>
+      <c r="L531" t="n">
+        <v>0.392008797653959</v>
+      </c>
+      <c r="M531" t="n">
+        <v>1</v>
+      </c>
+      <c r="N531" t="n">
+        <v>0.28537508566611</v>
+      </c>
+      <c r="O531" t="n">
+        <v>0.217191374838264</v>
+      </c>
+      <c r="P531" t="n">
+        <v>0.189640438289586</v>
+      </c>
+      <c r="Q531" t="n">
+        <v>0.599999999999636</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="s">
+        <v>27</v>
+      </c>
+      <c r="B532" t="s">
+        <v>22</v>
+      </c>
+      <c r="C532" t="s">
+        <v>26</v>
+      </c>
+      <c r="D532" t="n">
+        <v>32</v>
+      </c>
+      <c r="E532" t="n">
+        <v>288</v>
+      </c>
+      <c r="F532" t="s">
+        <v>20</v>
+      </c>
+      <c r="G532" t="n">
+        <v>24279</v>
+      </c>
+      <c r="H532" t="s">
+        <v>21</v>
+      </c>
+      <c r="I532" t="n">
+        <v>31</v>
+      </c>
+      <c r="J532" t="n">
+        <v>10</v>
+      </c>
+      <c r="K532" t="n">
+        <v>0.438533721644696</v>
+      </c>
+      <c r="L532" t="n">
+        <v>0.357184750733138</v>
+      </c>
+      <c r="M532" t="n">
+        <v>1</v>
+      </c>
+      <c r="N532" t="n">
+        <v>0.286752478138773</v>
+      </c>
+      <c r="O532" t="n">
+        <v>0.222992145011811</v>
+      </c>
+      <c r="P532" t="n">
+        <v>0.123536227007392</v>
+      </c>
+      <c r="Q532" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="s">
+        <v>27</v>
+      </c>
+      <c r="B533" t="s">
+        <v>22</v>
+      </c>
+      <c r="C533" t="s">
+        <v>26</v>
+      </c>
+      <c r="D533" t="n">
+        <v>32</v>
+      </c>
+      <c r="E533" t="n">
+        <v>288</v>
+      </c>
+      <c r="F533" t="s">
+        <v>20</v>
+      </c>
+      <c r="G533" t="n">
+        <v>24279</v>
+      </c>
+      <c r="H533" t="s">
+        <v>21</v>
+      </c>
+      <c r="I533" t="n">
+        <v>32</v>
+      </c>
+      <c r="J533" t="n">
+        <v>10</v>
+      </c>
+      <c r="K533" t="n">
+        <v>0.466797319087335</v>
+      </c>
+      <c r="L533" t="n">
+        <v>0.388343108504399</v>
+      </c>
+      <c r="M533" t="n">
+        <v>1</v>
+      </c>
+      <c r="N533" t="n">
+        <v>0.290765591799996</v>
+      </c>
+      <c r="O533" t="n">
+        <v>0.221566555096979</v>
+      </c>
+      <c r="P533" t="n">
+        <v>0.180841701633178</v>
+      </c>
+      <c r="Q533" t="n">
+        <v>0.599999999998909</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="s">
+        <v>27</v>
+      </c>
+      <c r="B534" t="s">
+        <v>22</v>
+      </c>
+      <c r="C534" t="s">
+        <v>26</v>
+      </c>
+      <c r="D534" t="n">
+        <v>32</v>
+      </c>
+      <c r="E534" t="n">
+        <v>288</v>
+      </c>
+      <c r="F534" t="s">
+        <v>20</v>
+      </c>
+      <c r="G534" t="n">
+        <v>24279</v>
+      </c>
+      <c r="H534" t="s">
+        <v>21</v>
+      </c>
+      <c r="I534" t="n">
+        <v>33</v>
+      </c>
+      <c r="J534" t="n">
+        <v>10</v>
+      </c>
+      <c r="K534" t="n">
+        <v>0.450689514402615</v>
+      </c>
+      <c r="L534" t="n">
+        <v>0.393401759530792</v>
+      </c>
+      <c r="M534" t="n">
+        <v>1</v>
+      </c>
+      <c r="N534" t="n">
+        <v>0.288898617022681</v>
+      </c>
+      <c r="O534" t="n">
+        <v>0.221368928871297</v>
+      </c>
+      <c r="P534" t="n">
+        <v>0.160442840458369</v>
+      </c>
+      <c r="Q534" t="n">
+        <v>0.596999999999753</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="s">
+        <v>27</v>
+      </c>
+      <c r="B535" t="s">
+        <v>22</v>
+      </c>
+      <c r="C535" t="s">
+        <v>26</v>
+      </c>
+      <c r="D535" t="n">
+        <v>32</v>
+      </c>
+      <c r="E535" t="n">
+        <v>288</v>
+      </c>
+      <c r="F535" t="s">
+        <v>20</v>
+      </c>
+      <c r="G535" t="n">
+        <v>24279</v>
+      </c>
+      <c r="H535" t="s">
+        <v>21</v>
+      </c>
+      <c r="I535" t="n">
+        <v>34</v>
+      </c>
+      <c r="J535" t="n">
+        <v>10</v>
+      </c>
+      <c r="K535" t="n">
+        <v>0.47339796128062</v>
+      </c>
+      <c r="L535" t="n">
+        <v>0.413196480938416</v>
+      </c>
+      <c r="M535" t="n">
+        <v>1</v>
+      </c>
+      <c r="N535" t="n">
+        <v>0.28532552936646</v>
+      </c>
+      <c r="O535" t="n">
+        <v>0.217773066055466</v>
+      </c>
+      <c r="P535" t="n">
+        <v>0.210856166044338</v>
+      </c>
+      <c r="Q535" t="n">
+        <v>0.597000000000116</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="s">
+        <v>27</v>
+      </c>
+      <c r="B536" t="s">
+        <v>22</v>
+      </c>
+      <c r="C536" t="s">
+        <v>26</v>
+      </c>
+      <c r="D536" t="n">
+        <v>32</v>
+      </c>
+      <c r="E536" t="n">
+        <v>288</v>
+      </c>
+      <c r="F536" t="s">
+        <v>20</v>
+      </c>
+      <c r="G536" t="n">
+        <v>24279</v>
+      </c>
+      <c r="H536" t="s">
+        <v>21</v>
+      </c>
+      <c r="I536" t="n">
+        <v>35</v>
+      </c>
+      <c r="J536" t="n">
+        <v>10</v>
+      </c>
+      <c r="K536" t="n">
+        <v>0.45003740387126</v>
+      </c>
+      <c r="L536" t="n">
+        <v>0.354545454545455</v>
+      </c>
+      <c r="M536" t="n">
+        <v>1</v>
+      </c>
+      <c r="N536" t="n">
+        <v>0.291648505425862</v>
+      </c>
+      <c r="O536" t="n">
+        <v>0.221768026344055</v>
+      </c>
+      <c r="P536" t="n">
+        <v>0.163420629510498</v>
+      </c>
+      <c r="Q536" t="n">
+        <v>0.601000000000204</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="s">
+        <v>27</v>
+      </c>
+      <c r="B537" t="s">
+        <v>22</v>
+      </c>
+      <c r="C537" t="s">
+        <v>26</v>
+      </c>
+      <c r="D537" t="n">
+        <v>32</v>
+      </c>
+      <c r="E537" t="n">
+        <v>288</v>
+      </c>
+      <c r="F537" t="s">
+        <v>20</v>
+      </c>
+      <c r="G537" t="n">
+        <v>24279</v>
+      </c>
+      <c r="H537" t="s">
+        <v>21</v>
+      </c>
+      <c r="I537" t="n">
+        <v>36</v>
+      </c>
+      <c r="J537" t="n">
+        <v>10</v>
+      </c>
+      <c r="K537" t="n">
+        <v>0.4390503868048</v>
+      </c>
+      <c r="L537" t="n">
+        <v>0.383724340175953</v>
+      </c>
+      <c r="M537" t="n">
+        <v>1</v>
+      </c>
+      <c r="N537" t="n">
+        <v>0.290645707797625</v>
+      </c>
+      <c r="O537" t="n">
+        <v>0.221563132650691</v>
+      </c>
+      <c r="P537" t="n">
+        <v>0.082217752983376</v>
+      </c>
+      <c r="Q537" t="n">
+        <v>0.595999999999185</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="s">
+        <v>27</v>
+      </c>
+      <c r="B538" t="s">
+        <v>22</v>
+      </c>
+      <c r="C538" t="s">
+        <v>26</v>
+      </c>
+      <c r="D538" t="n">
+        <v>32</v>
+      </c>
+      <c r="E538" t="n">
+        <v>288</v>
+      </c>
+      <c r="F538" t="s">
+        <v>20</v>
+      </c>
+      <c r="G538" t="n">
+        <v>24279</v>
+      </c>
+      <c r="H538" t="s">
+        <v>21</v>
+      </c>
+      <c r="I538" t="n">
+        <v>37</v>
+      </c>
+      <c r="J538" t="n">
+        <v>10</v>
+      </c>
+      <c r="K538" t="n">
+        <v>0.469938932499515</v>
+      </c>
+      <c r="L538" t="n">
+        <v>0.361033724340176</v>
+      </c>
+      <c r="M538" t="n">
+        <v>1</v>
+      </c>
+      <c r="N538" t="n">
+        <v>0.289084301856542</v>
+      </c>
+      <c r="O538" t="n">
+        <v>0.221431608284726</v>
+      </c>
+      <c r="P538" t="n">
+        <v>0.190077390367402</v>
+      </c>
+      <c r="Q538" t="n">
+        <v>0.597999999999956</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="s">
+        <v>27</v>
+      </c>
+      <c r="B539" t="s">
+        <v>22</v>
+      </c>
+      <c r="C539" t="s">
+        <v>26</v>
+      </c>
+      <c r="D539" t="n">
+        <v>32</v>
+      </c>
+      <c r="E539" t="n">
+        <v>288</v>
+      </c>
+      <c r="F539" t="s">
+        <v>20</v>
+      </c>
+      <c r="G539" t="n">
+        <v>24279</v>
+      </c>
+      <c r="H539" t="s">
+        <v>21</v>
+      </c>
+      <c r="I539" t="n">
+        <v>38</v>
+      </c>
+      <c r="J539" t="n">
+        <v>10</v>
+      </c>
+      <c r="K539" t="n">
+        <v>0.456439498882531</v>
+      </c>
+      <c r="L539" t="n">
+        <v>0.347067448680352</v>
+      </c>
+      <c r="M539" t="n">
+        <v>1</v>
+      </c>
+      <c r="N539" t="n">
+        <v>0.286948949134632</v>
+      </c>
+      <c r="O539" t="n">
+        <v>0.219465518303498</v>
+      </c>
+      <c r="P539" t="n">
+        <v>0.112781120120079</v>
+      </c>
+      <c r="Q539" t="n">
+        <v>0.602000000000407</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="s">
+        <v>27</v>
+      </c>
+      <c r="B540" t="s">
+        <v>22</v>
+      </c>
+      <c r="C540" t="s">
+        <v>26</v>
+      </c>
+      <c r="D540" t="n">
+        <v>32</v>
+      </c>
+      <c r="E540" t="n">
+        <v>288</v>
+      </c>
+      <c r="F540" t="s">
+        <v>20</v>
+      </c>
+      <c r="G540" t="n">
+        <v>24279</v>
+      </c>
+      <c r="H540" t="s">
+        <v>21</v>
+      </c>
+      <c r="I540" t="n">
+        <v>39</v>
+      </c>
+      <c r="J540" t="n">
+        <v>10</v>
+      </c>
+      <c r="K540" t="n">
+        <v>0.473247055387333</v>
+      </c>
+      <c r="L540" t="n">
+        <v>0.422873900293255</v>
+      </c>
+      <c r="M540" t="n">
+        <v>1</v>
+      </c>
+      <c r="N540" t="n">
+        <v>0.286713650707951</v>
+      </c>
+      <c r="O540" t="n">
+        <v>0.219601532574108</v>
+      </c>
+      <c r="P540" t="n">
+        <v>0.196741534543478</v>
+      </c>
+      <c r="Q540" t="n">
+        <v>0.605999999999767</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="s">
+        <v>27</v>
+      </c>
+      <c r="B541" t="s">
+        <v>22</v>
+      </c>
+      <c r="C541" t="s">
+        <v>26</v>
+      </c>
+      <c r="D541" t="n">
+        <v>32</v>
+      </c>
+      <c r="E541" t="n">
+        <v>288</v>
+      </c>
+      <c r="F541" t="s">
+        <v>20</v>
+      </c>
+      <c r="G541" t="n">
+        <v>24279</v>
+      </c>
+      <c r="H541" t="s">
+        <v>21</v>
+      </c>
+      <c r="I541" t="n">
+        <v>40</v>
+      </c>
+      <c r="J541" t="n">
+        <v>10</v>
+      </c>
+      <c r="K541" t="n">
+        <v>0.421851384540808</v>
+      </c>
+      <c r="L541" t="n">
+        <v>0.36033724340176</v>
+      </c>
+      <c r="M541" t="n">
+        <v>1</v>
+      </c>
+      <c r="N541" t="n">
+        <v>0.294765975023618</v>
+      </c>
+      <c r="O541" t="n">
+        <v>0.225221044721585</v>
+      </c>
+      <c r="P541" t="n">
+        <v>0.135191259443706</v>
+      </c>
+      <c r="Q541" t="n">
+        <v>0.595999999999185</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="s">
+        <v>27</v>
+      </c>
+      <c r="B542" t="s">
+        <v>22</v>
+      </c>
+      <c r="C542" t="s">
+        <v>26</v>
+      </c>
+      <c r="D542" t="n">
+        <v>32</v>
+      </c>
+      <c r="E542" t="n">
+        <v>288</v>
+      </c>
+      <c r="F542" t="s">
+        <v>20</v>
+      </c>
+      <c r="G542" t="n">
+        <v>24279</v>
+      </c>
+      <c r="H542" t="s">
+        <v>21</v>
+      </c>
+      <c r="I542" t="n">
+        <v>41</v>
+      </c>
+      <c r="J542" t="n">
+        <v>10</v>
+      </c>
+      <c r="K542" t="n">
+        <v>0.47342842542767</v>
+      </c>
+      <c r="L542" t="n">
+        <v>0.392631964809384</v>
+      </c>
+      <c r="M542" t="n">
+        <v>1</v>
+      </c>
+      <c r="N542" t="n">
+        <v>0.287943685742157</v>
+      </c>
+      <c r="O542" t="n">
+        <v>0.221659632400683</v>
+      </c>
+      <c r="P542" t="n">
+        <v>0.104722848003683</v>
+      </c>
+      <c r="Q542" t="n">
+        <v>0.594999999999709</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="s">
+        <v>27</v>
+      </c>
+      <c r="B543" t="s">
+        <v>22</v>
+      </c>
+      <c r="C543" t="s">
+        <v>26</v>
+      </c>
+      <c r="D543" t="n">
+        <v>32</v>
+      </c>
+      <c r="E543" t="n">
+        <v>288</v>
+      </c>
+      <c r="F543" t="s">
+        <v>20</v>
+      </c>
+      <c r="G543" t="n">
+        <v>24279</v>
+      </c>
+      <c r="H543" t="s">
+        <v>21</v>
+      </c>
+      <c r="I543" t="n">
+        <v>42</v>
+      </c>
+      <c r="J543" t="n">
+        <v>10</v>
+      </c>
+      <c r="K543" t="n">
+        <v>0.431350716806295</v>
+      </c>
+      <c r="L543" t="n">
+        <v>0.345234604105572</v>
+      </c>
+      <c r="M543" t="n">
+        <v>1</v>
+      </c>
+      <c r="N543" t="n">
+        <v>0.292830946212592</v>
+      </c>
+      <c r="O543" t="n">
+        <v>0.223726329178045</v>
+      </c>
+      <c r="P543" t="n">
+        <v>0.0784025291699565</v>
+      </c>
+      <c r="Q543" t="n">
+        <v>0.594999999999345</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="s">
+        <v>27</v>
+      </c>
+      <c r="B544" t="s">
+        <v>22</v>
+      </c>
+      <c r="C544" t="s">
+        <v>26</v>
+      </c>
+      <c r="D544" t="n">
+        <v>32</v>
+      </c>
+      <c r="E544" t="n">
+        <v>288</v>
+      </c>
+      <c r="F544" t="s">
+        <v>20</v>
+      </c>
+      <c r="G544" t="n">
+        <v>24279</v>
+      </c>
+      <c r="H544" t="s">
+        <v>21</v>
+      </c>
+      <c r="I544" t="n">
+        <v>43</v>
+      </c>
+      <c r="J544" t="n">
+        <v>10</v>
+      </c>
+      <c r="K544" t="n">
+        <v>0.469533233640494</v>
+      </c>
+      <c r="L544" t="n">
+        <v>0.376649560117302</v>
+      </c>
+      <c r="M544" t="n">
+        <v>1</v>
+      </c>
+      <c r="N544" t="n">
+        <v>0.288728260743875</v>
+      </c>
+      <c r="O544" t="n">
+        <v>0.22281924662732</v>
+      </c>
+      <c r="P544" t="n">
+        <v>0.157424830958176</v>
+      </c>
+      <c r="Q544" t="n">
+        <v>0.597999999999593</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="s">
+        <v>27</v>
+      </c>
+      <c r="B545" t="s">
+        <v>22</v>
+      </c>
+      <c r="C545" t="s">
+        <v>26</v>
+      </c>
+      <c r="D545" t="n">
+        <v>32</v>
+      </c>
+      <c r="E545" t="n">
+        <v>288</v>
+      </c>
+      <c r="F545" t="s">
+        <v>20</v>
+      </c>
+      <c r="G545" t="n">
+        <v>24279</v>
+      </c>
+      <c r="H545" t="s">
+        <v>21</v>
+      </c>
+      <c r="I545" t="n">
+        <v>44</v>
+      </c>
+      <c r="J545" t="n">
+        <v>10</v>
+      </c>
+      <c r="K545" t="n">
+        <v>0.45654299010902</v>
+      </c>
+      <c r="L545" t="n">
+        <v>0.393511730205279</v>
+      </c>
+      <c r="M545" t="n">
+        <v>1</v>
+      </c>
+      <c r="N545" t="n">
+        <v>0.290508635304991</v>
+      </c>
+      <c r="O545" t="n">
+        <v>0.2218765596353</v>
+      </c>
+      <c r="P545" t="n">
+        <v>0.185042163551912</v>
+      </c>
+      <c r="Q545" t="n">
+        <v>0.601000000000204</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="s">
+        <v>27</v>
+      </c>
+      <c r="B546" t="s">
+        <v>22</v>
+      </c>
+      <c r="C546" t="s">
+        <v>26</v>
+      </c>
+      <c r="D546" t="n">
+        <v>32</v>
+      </c>
+      <c r="E546" t="n">
+        <v>288</v>
+      </c>
+      <c r="F546" t="s">
+        <v>20</v>
+      </c>
+      <c r="G546" t="n">
+        <v>24279</v>
+      </c>
+      <c r="H546" t="s">
+        <v>21</v>
+      </c>
+      <c r="I546" t="n">
+        <v>45</v>
+      </c>
+      <c r="J546" t="n">
+        <v>10</v>
+      </c>
+      <c r="K546" t="n">
+        <v>0.468408222757688</v>
+      </c>
+      <c r="L546" t="n">
+        <v>0.396994134897361</v>
+      </c>
+      <c r="M546" t="n">
+        <v>1</v>
+      </c>
+      <c r="N546" t="n">
+        <v>0.287559989096403</v>
+      </c>
+      <c r="O546" t="n">
+        <v>0.220763100278638</v>
+      </c>
+      <c r="P546" t="n">
+        <v>0.153131585705403</v>
+      </c>
+      <c r="Q546" t="n">
+        <v>0.595999999999913</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="s">
+        <v>27</v>
+      </c>
+      <c r="B547" t="s">
+        <v>22</v>
+      </c>
+      <c r="C547" t="s">
+        <v>26</v>
+      </c>
+      <c r="D547" t="n">
+        <v>32</v>
+      </c>
+      <c r="E547" t="n">
+        <v>288</v>
+      </c>
+      <c r="F547" t="s">
+        <v>20</v>
+      </c>
+      <c r="G547" t="n">
+        <v>24279</v>
+      </c>
+      <c r="H547" t="s">
+        <v>21</v>
+      </c>
+      <c r="I547" t="n">
+        <v>46</v>
+      </c>
+      <c r="J547" t="n">
+        <v>10</v>
+      </c>
+      <c r="K547" t="n">
+        <v>0.463969330900715</v>
+      </c>
+      <c r="L547" t="n">
+        <v>0.391239002932551</v>
+      </c>
+      <c r="M547" t="n">
+        <v>1</v>
+      </c>
+      <c r="N547" t="n">
+        <v>0.288267732899034</v>
+      </c>
+      <c r="O547" t="n">
+        <v>0.220673771807672</v>
+      </c>
+      <c r="P547" t="n">
+        <v>0.194485765453326</v>
+      </c>
+      <c r="Q547" t="n">
+        <v>0.596999999999753</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="s">
+        <v>27</v>
+      </c>
+      <c r="B548" t="s">
+        <v>22</v>
+      </c>
+      <c r="C548" t="s">
+        <v>26</v>
+      </c>
+      <c r="D548" t="n">
+        <v>32</v>
+      </c>
+      <c r="E548" t="n">
+        <v>288</v>
+      </c>
+      <c r="F548" t="s">
+        <v>20</v>
+      </c>
+      <c r="G548" t="n">
+        <v>24279</v>
+      </c>
+      <c r="H548" t="s">
+        <v>21</v>
+      </c>
+      <c r="I548" t="n">
+        <v>47</v>
+      </c>
+      <c r="J548" t="n">
+        <v>10</v>
+      </c>
+      <c r="K548" t="n">
+        <v>0.446947249264058</v>
+      </c>
+      <c r="L548" t="n">
+        <v>0.393841642228739</v>
+      </c>
+      <c r="M548" t="n">
+        <v>1</v>
+      </c>
+      <c r="N548" t="n">
+        <v>0.283624485324174</v>
+      </c>
+      <c r="O548" t="n">
+        <v>0.219639105591106</v>
+      </c>
+      <c r="P548" t="n">
+        <v>0.153634437830804</v>
+      </c>
+      <c r="Q548" t="n">
+        <v>0.596999999999389</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="s">
+        <v>27</v>
+      </c>
+      <c r="B549" t="s">
+        <v>22</v>
+      </c>
+      <c r="C549" t="s">
+        <v>26</v>
+      </c>
+      <c r="D549" t="n">
+        <v>32</v>
+      </c>
+      <c r="E549" t="n">
+        <v>288</v>
+      </c>
+      <c r="F549" t="s">
+        <v>20</v>
+      </c>
+      <c r="G549" t="n">
+        <v>24279</v>
+      </c>
+      <c r="H549" t="s">
+        <v>21</v>
+      </c>
+      <c r="I549" t="n">
+        <v>48</v>
+      </c>
+      <c r="J549" t="n">
+        <v>10</v>
+      </c>
+      <c r="K549" t="n">
+        <v>0.46046493175031</v>
+      </c>
+      <c r="L549" t="n">
+        <v>0.405315249266862</v>
+      </c>
+      <c r="M549" t="n">
+        <v>1</v>
+      </c>
+      <c r="N549" t="n">
+        <v>0.291209310116141</v>
+      </c>
+      <c r="O549" t="n">
+        <v>0.221545408908432</v>
+      </c>
+      <c r="P549" t="n">
+        <v>0.158161121201894</v>
+      </c>
+      <c r="Q549" t="n">
+        <v>0.593999999999869</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="s">
+        <v>27</v>
+      </c>
+      <c r="B550" t="s">
+        <v>22</v>
+      </c>
+      <c r="C550" t="s">
+        <v>26</v>
+      </c>
+      <c r="D550" t="n">
+        <v>32</v>
+      </c>
+      <c r="E550" t="n">
+        <v>288</v>
+      </c>
+      <c r="F550" t="s">
+        <v>20</v>
+      </c>
+      <c r="G550" t="n">
+        <v>24279</v>
+      </c>
+      <c r="H550" t="s">
+        <v>21</v>
+      </c>
+      <c r="I550" t="n">
+        <v>49</v>
+      </c>
+      <c r="J550" t="n">
+        <v>10</v>
+      </c>
+      <c r="K550" t="n">
+        <v>0.500281417611233</v>
+      </c>
+      <c r="L550" t="n">
+        <v>0.434567448680352</v>
+      </c>
+      <c r="M550" t="n">
+        <v>1</v>
+      </c>
+      <c r="N550" t="n">
+        <v>0.2830234342813</v>
+      </c>
+      <c r="O550" t="n">
+        <v>0.216062483560632</v>
+      </c>
+      <c r="P550" t="n">
+        <v>0.221063289148977</v>
+      </c>
+      <c r="Q550" t="n">
+        <v>0.597999999999956</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="s">
+        <v>27</v>
+      </c>
+      <c r="B551" t="s">
+        <v>22</v>
+      </c>
+      <c r="C551" t="s">
+        <v>26</v>
+      </c>
+      <c r="D551" t="n">
+        <v>32</v>
+      </c>
+      <c r="E551" t="n">
+        <v>288</v>
+      </c>
+      <c r="F551" t="s">
+        <v>20</v>
+      </c>
+      <c r="G551" t="n">
+        <v>24279</v>
+      </c>
+      <c r="H551" t="s">
+        <v>21</v>
+      </c>
+      <c r="I551" t="n">
+        <v>50</v>
+      </c>
+      <c r="J551" t="n">
+        <v>10</v>
+      </c>
+      <c r="K551" t="n">
+        <v>0.447130521669375</v>
+      </c>
+      <c r="L551" t="n">
+        <v>0.384494134897361</v>
+      </c>
+      <c r="M551" t="n">
+        <v>1</v>
+      </c>
+      <c r="N551" t="n">
+        <v>0.290681149393212</v>
+      </c>
+      <c r="O551" t="n">
+        <v>0.220816329803517</v>
+      </c>
+      <c r="P551" t="n">
+        <v>0.140585073303381</v>
+      </c>
+      <c r="Q551" t="n">
+        <v>0.596000000000277</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
